--- a/backend/fms_core/tests/invalid_templates/Sample_transfer_v4_10_0_Missing_Study.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Sample_transfer_v4_10_0_Missing_Study.xlsx
@@ -104,10 +104,10 @@
     <t xml:space="preserve">Current Volume (uL)</t>
   </si>
   <si>
+    <t xml:space="preserve">New Current Volume (uL)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volume Used (uL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Current Volume (uL)</t>
   </si>
   <si>
     <t xml:space="preserve">Transfer Date (YYYY-MM-DD)</t>
@@ -2122,10 +2122,10 @@
   </sheetPr>
   <dimension ref="A1:AG892"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2140,8 +2140,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="38.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="38.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.99"/>
@@ -2189,10 +2189,9 @@
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
         <v>5</v>
       </c>
@@ -2279,10 +2278,10 @@
       <c r="K6" s="19" t="n">
         <v>400</v>
       </c>
-      <c r="L6" s="27" t="n">
+      <c r="L6" s="19"/>
+      <c r="M6" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="M6" s="27"/>
       <c r="N6" s="28" t="s">
         <v>27</v>
       </c>
@@ -2312,7 +2311,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="27"/>
       <c r="N7" s="28"/>
       <c r="O7" s="22"/>
@@ -2335,7 +2334,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="27"/>
       <c r="N8" s="28"/>
       <c r="O8" s="22"/>
@@ -2358,7 +2357,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="26"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="27"/>
       <c r="N9" s="28"/>
       <c r="O9" s="22"/>
@@ -2381,7 +2380,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="27"/>
       <c r="N10" s="28"/>
       <c r="O10" s="22"/>
@@ -2404,7 +2403,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="27"/>
       <c r="N11" s="28"/>
       <c r="O11" s="22"/>
@@ -2427,7 +2426,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="27"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="27"/>
       <c r="N12" s="28"/>
       <c r="O12" s="22"/>
@@ -2450,7 +2449,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="27"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="27"/>
       <c r="N13" s="28"/>
       <c r="O13" s="22"/>
@@ -2473,7 +2472,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="27"/>
       <c r="N14" s="28"/>
       <c r="O14" s="22"/>
@@ -2496,7 +2495,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="27"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="27"/>
       <c r="N15" s="28"/>
       <c r="O15" s="22"/>
@@ -2519,7 +2518,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="27"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
       <c r="O16" s="22"/>
@@ -2542,7 +2541,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="27"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
       <c r="O17" s="22"/>
@@ -2565,7 +2564,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
       <c r="O18" s="22"/>
@@ -2588,7 +2587,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
       <c r="O19" s="22"/>
@@ -2611,7 +2610,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
       <c r="O20" s="22"/>
@@ -2634,7 +2633,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
       <c r="O21" s="22"/>
@@ -2657,7 +2656,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="27"/>
       <c r="N22" s="28"/>
       <c r="O22" s="22"/>
@@ -2680,7 +2679,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="27"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="27"/>
       <c r="N23" s="28"/>
       <c r="O23" s="22"/>
@@ -2703,7 +2702,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="27"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="27"/>
       <c r="N24" s="28"/>
       <c r="O24" s="22"/>
@@ -2726,7 +2725,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="27"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="27"/>
       <c r="N25" s="28"/>
       <c r="O25" s="22"/>
@@ -2749,7 +2748,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="27"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="27"/>
       <c r="N26" s="28"/>
       <c r="O26" s="22"/>
@@ -2772,7 +2771,7 @@
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
       <c r="K27" s="19"/>
-      <c r="L27" s="27"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="27"/>
       <c r="N27" s="28"/>
       <c r="O27" s="22"/>
@@ -2795,7 +2794,7 @@
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="27"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="27"/>
       <c r="N28" s="28"/>
       <c r="O28" s="22"/>
@@ -2818,7 +2817,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="27"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="27"/>
       <c r="N29" s="28"/>
       <c r="O29" s="22"/>
@@ -2841,7 +2840,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="27"/>
       <c r="N30" s="28"/>
       <c r="O30" s="22"/>
@@ -2864,7 +2863,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="27"/>
       <c r="N31" s="28"/>
       <c r="O31" s="22"/>
@@ -2887,7 +2886,7 @@
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="27"/>
       <c r="N32" s="28"/>
       <c r="O32" s="22"/>
@@ -2910,7 +2909,7 @@
       <c r="I33" s="25"/>
       <c r="J33" s="26"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="27"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="27"/>
       <c r="N33" s="28"/>
       <c r="O33" s="22"/>
@@ -2933,7 +2932,7 @@
       <c r="I34" s="25"/>
       <c r="J34" s="26"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="27"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="27"/>
       <c r="N34" s="28"/>
       <c r="O34" s="22"/>
@@ -2956,7 +2955,7 @@
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
       <c r="K35" s="19"/>
-      <c r="L35" s="27"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="27"/>
       <c r="N35" s="28"/>
       <c r="O35" s="22"/>
@@ -2979,7 +2978,7 @@
       <c r="I36" s="25"/>
       <c r="J36" s="26"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="27"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="27"/>
       <c r="N36" s="28"/>
       <c r="O36" s="22"/>
@@ -3002,7 +3001,7 @@
       <c r="I37" s="25"/>
       <c r="J37" s="26"/>
       <c r="K37" s="19"/>
-      <c r="L37" s="27"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="27"/>
       <c r="N37" s="28"/>
       <c r="O37" s="22"/>
@@ -3025,7 +3024,7 @@
       <c r="I38" s="25"/>
       <c r="J38" s="26"/>
       <c r="K38" s="19"/>
-      <c r="L38" s="27"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="27"/>
       <c r="N38" s="28"/>
       <c r="O38" s="22"/>
@@ -3048,7 +3047,7 @@
       <c r="I39" s="25"/>
       <c r="J39" s="26"/>
       <c r="K39" s="19"/>
-      <c r="L39" s="27"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="27"/>
       <c r="N39" s="28"/>
       <c r="O39" s="22"/>
@@ -3071,7 +3070,7 @@
       <c r="I40" s="25"/>
       <c r="J40" s="26"/>
       <c r="K40" s="19"/>
-      <c r="L40" s="27"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="27"/>
       <c r="N40" s="28"/>
       <c r="O40" s="22"/>
@@ -3094,7 +3093,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="26"/>
       <c r="K41" s="19"/>
-      <c r="L41" s="27"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="27"/>
       <c r="N41" s="28"/>
       <c r="O41" s="22"/>
@@ -3117,7 +3116,7 @@
       <c r="I42" s="25"/>
       <c r="J42" s="26"/>
       <c r="K42" s="19"/>
-      <c r="L42" s="27"/>
+      <c r="L42" s="19"/>
       <c r="M42" s="27"/>
       <c r="N42" s="28"/>
       <c r="O42" s="22"/>
@@ -3140,7 +3139,7 @@
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
       <c r="K43" s="19"/>
-      <c r="L43" s="27"/>
+      <c r="L43" s="19"/>
       <c r="M43" s="27"/>
       <c r="N43" s="28"/>
       <c r="O43" s="22"/>
@@ -3163,7 +3162,7 @@
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
       <c r="K44" s="19"/>
-      <c r="L44" s="27"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="27"/>
       <c r="N44" s="28"/>
       <c r="O44" s="22"/>
@@ -3186,7 +3185,7 @@
       <c r="I45" s="25"/>
       <c r="J45" s="26"/>
       <c r="K45" s="19"/>
-      <c r="L45" s="27"/>
+      <c r="L45" s="19"/>
       <c r="M45" s="27"/>
       <c r="N45" s="28"/>
       <c r="O45" s="22"/>
@@ -3209,7 +3208,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="26"/>
       <c r="K46" s="19"/>
-      <c r="L46" s="27"/>
+      <c r="L46" s="19"/>
       <c r="M46" s="27"/>
       <c r="N46" s="28"/>
       <c r="O46" s="22"/>
@@ -3232,7 +3231,7 @@
       <c r="I47" s="25"/>
       <c r="J47" s="26"/>
       <c r="K47" s="19"/>
-      <c r="L47" s="27"/>
+      <c r="L47" s="19"/>
       <c r="M47" s="27"/>
       <c r="N47" s="28"/>
       <c r="O47" s="22"/>
@@ -3255,7 +3254,7 @@
       <c r="I48" s="25"/>
       <c r="J48" s="26"/>
       <c r="K48" s="19"/>
-      <c r="L48" s="27"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="27"/>
       <c r="N48" s="28"/>
       <c r="O48" s="22"/>
@@ -3278,7 +3277,7 @@
       <c r="I49" s="25"/>
       <c r="J49" s="26"/>
       <c r="K49" s="19"/>
-      <c r="L49" s="27"/>
+      <c r="L49" s="19"/>
       <c r="M49" s="27"/>
       <c r="N49" s="28"/>
       <c r="O49" s="22"/>
@@ -3301,7 +3300,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="26"/>
       <c r="K50" s="19"/>
-      <c r="L50" s="27"/>
+      <c r="L50" s="19"/>
       <c r="M50" s="27"/>
       <c r="N50" s="28"/>
       <c r="O50" s="22"/>
@@ -3324,7 +3323,7 @@
       <c r="I51" s="25"/>
       <c r="J51" s="26"/>
       <c r="K51" s="19"/>
-      <c r="L51" s="27"/>
+      <c r="L51" s="19"/>
       <c r="M51" s="27"/>
       <c r="N51" s="28"/>
       <c r="O51" s="22"/>
@@ -3347,7 +3346,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="26"/>
       <c r="K52" s="19"/>
-      <c r="L52" s="27"/>
+      <c r="L52" s="19"/>
       <c r="M52" s="27"/>
       <c r="N52" s="28"/>
       <c r="O52" s="22"/>
@@ -3370,7 +3369,7 @@
       <c r="I53" s="25"/>
       <c r="J53" s="26"/>
       <c r="K53" s="19"/>
-      <c r="L53" s="27"/>
+      <c r="L53" s="19"/>
       <c r="M53" s="27"/>
       <c r="N53" s="28"/>
       <c r="O53" s="22"/>
@@ -3393,7 +3392,7 @@
       <c r="I54" s="25"/>
       <c r="J54" s="26"/>
       <c r="K54" s="19"/>
-      <c r="L54" s="27"/>
+      <c r="L54" s="19"/>
       <c r="M54" s="27"/>
       <c r="N54" s="28"/>
       <c r="O54" s="22"/>
@@ -3416,7 +3415,7 @@
       <c r="I55" s="25"/>
       <c r="J55" s="26"/>
       <c r="K55" s="19"/>
-      <c r="L55" s="27"/>
+      <c r="L55" s="19"/>
       <c r="M55" s="27"/>
       <c r="N55" s="28"/>
       <c r="O55" s="22"/>
@@ -3439,7 +3438,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="26"/>
       <c r="K56" s="19"/>
-      <c r="L56" s="27"/>
+      <c r="L56" s="19"/>
       <c r="M56" s="27"/>
       <c r="N56" s="28"/>
       <c r="O56" s="22"/>
@@ -3462,7 +3461,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="26"/>
       <c r="K57" s="19"/>
-      <c r="L57" s="27"/>
+      <c r="L57" s="19"/>
       <c r="M57" s="27"/>
       <c r="N57" s="28"/>
       <c r="O57" s="22"/>
@@ -3485,7 +3484,7 @@
       <c r="I58" s="25"/>
       <c r="J58" s="26"/>
       <c r="K58" s="19"/>
-      <c r="L58" s="27"/>
+      <c r="L58" s="19"/>
       <c r="M58" s="27"/>
       <c r="N58" s="28"/>
       <c r="O58" s="22"/>
@@ -3508,7 +3507,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="26"/>
       <c r="K59" s="19"/>
-      <c r="L59" s="27"/>
+      <c r="L59" s="19"/>
       <c r="M59" s="27"/>
       <c r="N59" s="28"/>
       <c r="O59" s="22"/>
@@ -3531,7 +3530,7 @@
       <c r="I60" s="25"/>
       <c r="J60" s="26"/>
       <c r="K60" s="19"/>
-      <c r="L60" s="27"/>
+      <c r="L60" s="19"/>
       <c r="M60" s="27"/>
       <c r="N60" s="28"/>
       <c r="O60" s="22"/>
@@ -3554,7 +3553,7 @@
       <c r="I61" s="25"/>
       <c r="J61" s="26"/>
       <c r="K61" s="19"/>
-      <c r="L61" s="27"/>
+      <c r="L61" s="19"/>
       <c r="M61" s="27"/>
       <c r="N61" s="28"/>
       <c r="O61" s="22"/>
@@ -3577,7 +3576,7 @@
       <c r="I62" s="25"/>
       <c r="J62" s="26"/>
       <c r="K62" s="19"/>
-      <c r="L62" s="27"/>
+      <c r="L62" s="19"/>
       <c r="M62" s="27"/>
       <c r="N62" s="28"/>
       <c r="O62" s="22"/>
@@ -3600,7 +3599,7 @@
       <c r="I63" s="25"/>
       <c r="J63" s="26"/>
       <c r="K63" s="19"/>
-      <c r="L63" s="27"/>
+      <c r="L63" s="19"/>
       <c r="M63" s="27"/>
       <c r="N63" s="28"/>
       <c r="O63" s="22"/>
@@ -3623,7 +3622,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="26"/>
       <c r="K64" s="19"/>
-      <c r="L64" s="27"/>
+      <c r="L64" s="19"/>
       <c r="M64" s="27"/>
       <c r="N64" s="28"/>
       <c r="O64" s="22"/>
@@ -3646,7 +3645,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="26"/>
       <c r="K65" s="19"/>
-      <c r="L65" s="27"/>
+      <c r="L65" s="19"/>
       <c r="M65" s="27"/>
       <c r="N65" s="28"/>
       <c r="O65" s="22"/>
@@ -3669,7 +3668,7 @@
       <c r="I66" s="25"/>
       <c r="J66" s="26"/>
       <c r="K66" s="19"/>
-      <c r="L66" s="27"/>
+      <c r="L66" s="19"/>
       <c r="M66" s="27"/>
       <c r="N66" s="28"/>
       <c r="O66" s="22"/>
@@ -3692,7 +3691,7 @@
       <c r="I67" s="25"/>
       <c r="J67" s="26"/>
       <c r="K67" s="19"/>
-      <c r="L67" s="27"/>
+      <c r="L67" s="19"/>
       <c r="M67" s="27"/>
       <c r="N67" s="28"/>
       <c r="O67" s="22"/>
@@ -3715,7 +3714,7 @@
       <c r="I68" s="25"/>
       <c r="J68" s="26"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="27"/>
+      <c r="L68" s="19"/>
       <c r="M68" s="27"/>
       <c r="N68" s="28"/>
       <c r="O68" s="22"/>
@@ -3738,7 +3737,7 @@
       <c r="I69" s="25"/>
       <c r="J69" s="26"/>
       <c r="K69" s="19"/>
-      <c r="L69" s="27"/>
+      <c r="L69" s="19"/>
       <c r="M69" s="27"/>
       <c r="N69" s="28"/>
       <c r="O69" s="22"/>
@@ -3761,7 +3760,7 @@
       <c r="I70" s="25"/>
       <c r="J70" s="26"/>
       <c r="K70" s="19"/>
-      <c r="L70" s="27"/>
+      <c r="L70" s="19"/>
       <c r="M70" s="27"/>
       <c r="N70" s="28"/>
       <c r="O70" s="22"/>
@@ -3784,7 +3783,7 @@
       <c r="I71" s="25"/>
       <c r="J71" s="26"/>
       <c r="K71" s="19"/>
-      <c r="L71" s="27"/>
+      <c r="L71" s="19"/>
       <c r="M71" s="27"/>
       <c r="N71" s="28"/>
       <c r="O71" s="22"/>
@@ -3807,7 +3806,7 @@
       <c r="I72" s="25"/>
       <c r="J72" s="26"/>
       <c r="K72" s="19"/>
-      <c r="L72" s="27"/>
+      <c r="L72" s="19"/>
       <c r="M72" s="27"/>
       <c r="N72" s="28"/>
       <c r="O72" s="22"/>
@@ -3830,7 +3829,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="26"/>
       <c r="K73" s="19"/>
-      <c r="L73" s="27"/>
+      <c r="L73" s="19"/>
       <c r="M73" s="27"/>
       <c r="N73" s="28"/>
       <c r="O73" s="22"/>
@@ -3853,7 +3852,7 @@
       <c r="I74" s="25"/>
       <c r="J74" s="26"/>
       <c r="K74" s="19"/>
-      <c r="L74" s="27"/>
+      <c r="L74" s="19"/>
       <c r="M74" s="27"/>
       <c r="N74" s="28"/>
       <c r="O74" s="22"/>
@@ -3876,7 +3875,7 @@
       <c r="I75" s="25"/>
       <c r="J75" s="26"/>
       <c r="K75" s="19"/>
-      <c r="L75" s="27"/>
+      <c r="L75" s="19"/>
       <c r="M75" s="27"/>
       <c r="N75" s="28"/>
       <c r="O75" s="22"/>
@@ -3899,7 +3898,7 @@
       <c r="I76" s="25"/>
       <c r="J76" s="26"/>
       <c r="K76" s="19"/>
-      <c r="L76" s="27"/>
+      <c r="L76" s="19"/>
       <c r="M76" s="27"/>
       <c r="N76" s="28"/>
       <c r="O76" s="22"/>
@@ -3922,7 +3921,7 @@
       <c r="I77" s="25"/>
       <c r="J77" s="26"/>
       <c r="K77" s="19"/>
-      <c r="L77" s="27"/>
+      <c r="L77" s="19"/>
       <c r="M77" s="27"/>
       <c r="N77" s="28"/>
       <c r="O77" s="22"/>
@@ -3945,7 +3944,7 @@
       <c r="I78" s="25"/>
       <c r="J78" s="26"/>
       <c r="K78" s="19"/>
-      <c r="L78" s="27"/>
+      <c r="L78" s="19"/>
       <c r="M78" s="27"/>
       <c r="N78" s="28"/>
       <c r="O78" s="22"/>
@@ -3968,7 +3967,7 @@
       <c r="I79" s="25"/>
       <c r="J79" s="26"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="27"/>
+      <c r="L79" s="19"/>
       <c r="M79" s="27"/>
       <c r="N79" s="28"/>
       <c r="O79" s="22"/>
@@ -3991,7 +3990,7 @@
       <c r="I80" s="25"/>
       <c r="J80" s="26"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="27"/>
+      <c r="L80" s="19"/>
       <c r="M80" s="27"/>
       <c r="N80" s="28"/>
       <c r="O80" s="22"/>
@@ -4014,7 +4013,7 @@
       <c r="I81" s="25"/>
       <c r="J81" s="26"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="27"/>
+      <c r="L81" s="19"/>
       <c r="M81" s="27"/>
       <c r="N81" s="28"/>
       <c r="O81" s="22"/>
@@ -4037,7 +4036,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="26"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="27"/>
+      <c r="L82" s="19"/>
       <c r="M82" s="27"/>
       <c r="N82" s="28"/>
       <c r="O82" s="22"/>
@@ -4060,7 +4059,7 @@
       <c r="I83" s="25"/>
       <c r="J83" s="26"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="27"/>
+      <c r="L83" s="19"/>
       <c r="M83" s="27"/>
       <c r="N83" s="28"/>
       <c r="O83" s="22"/>
@@ -4083,7 +4082,7 @@
       <c r="I84" s="25"/>
       <c r="J84" s="26"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="27"/>
+      <c r="L84" s="19"/>
       <c r="M84" s="27"/>
       <c r="N84" s="28"/>
       <c r="O84" s="22"/>
@@ -4106,7 +4105,7 @@
       <c r="I85" s="25"/>
       <c r="J85" s="26"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="27"/>
+      <c r="L85" s="19"/>
       <c r="M85" s="27"/>
       <c r="N85" s="28"/>
       <c r="O85" s="22"/>
@@ -4129,7 +4128,7 @@
       <c r="I86" s="25"/>
       <c r="J86" s="26"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="27"/>
+      <c r="L86" s="19"/>
       <c r="M86" s="27"/>
       <c r="N86" s="28"/>
       <c r="O86" s="22"/>
@@ -4152,7 +4151,7 @@
       <c r="I87" s="25"/>
       <c r="J87" s="26"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="27"/>
+      <c r="L87" s="19"/>
       <c r="M87" s="27"/>
       <c r="N87" s="28"/>
       <c r="O87" s="22"/>
@@ -4175,7 +4174,7 @@
       <c r="I88" s="25"/>
       <c r="J88" s="26"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="27"/>
+      <c r="L88" s="19"/>
       <c r="M88" s="27"/>
       <c r="N88" s="28"/>
       <c r="O88" s="22"/>
@@ -4198,7 +4197,7 @@
       <c r="I89" s="25"/>
       <c r="J89" s="26"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="27"/>
+      <c r="L89" s="19"/>
       <c r="M89" s="27"/>
       <c r="N89" s="28"/>
       <c r="O89" s="22"/>
@@ -4221,7 +4220,7 @@
       <c r="I90" s="25"/>
       <c r="J90" s="26"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="27"/>
+      <c r="L90" s="19"/>
       <c r="M90" s="27"/>
       <c r="N90" s="28"/>
       <c r="O90" s="22"/>
@@ -4244,7 +4243,7 @@
       <c r="I91" s="25"/>
       <c r="J91" s="26"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="27"/>
+      <c r="L91" s="19"/>
       <c r="M91" s="27"/>
       <c r="N91" s="28"/>
       <c r="O91" s="22"/>
@@ -4267,7 +4266,7 @@
       <c r="I92" s="25"/>
       <c r="J92" s="26"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="27"/>
+      <c r="L92" s="19"/>
       <c r="M92" s="27"/>
       <c r="N92" s="28"/>
       <c r="O92" s="22"/>
@@ -4290,7 +4289,7 @@
       <c r="I93" s="25"/>
       <c r="J93" s="26"/>
       <c r="K93" s="19"/>
-      <c r="L93" s="27"/>
+      <c r="L93" s="19"/>
       <c r="M93" s="27"/>
       <c r="N93" s="28"/>
       <c r="O93" s="22"/>
@@ -4313,7 +4312,7 @@
       <c r="I94" s="25"/>
       <c r="J94" s="26"/>
       <c r="K94" s="19"/>
-      <c r="L94" s="27"/>
+      <c r="L94" s="19"/>
       <c r="M94" s="27"/>
       <c r="N94" s="28"/>
       <c r="O94" s="22"/>
@@ -4336,7 +4335,7 @@
       <c r="I95" s="25"/>
       <c r="J95" s="26"/>
       <c r="K95" s="19"/>
-      <c r="L95" s="27"/>
+      <c r="L95" s="19"/>
       <c r="M95" s="27"/>
       <c r="N95" s="28"/>
       <c r="O95" s="22"/>
@@ -4359,7 +4358,7 @@
       <c r="I96" s="25"/>
       <c r="J96" s="26"/>
       <c r="K96" s="19"/>
-      <c r="L96" s="27"/>
+      <c r="L96" s="19"/>
       <c r="M96" s="27"/>
       <c r="N96" s="28"/>
       <c r="O96" s="22"/>
@@ -4382,7 +4381,7 @@
       <c r="I97" s="25"/>
       <c r="J97" s="26"/>
       <c r="K97" s="19"/>
-      <c r="L97" s="27"/>
+      <c r="L97" s="19"/>
       <c r="M97" s="27"/>
       <c r="N97" s="28"/>
       <c r="O97" s="22"/>
@@ -4405,7 +4404,7 @@
       <c r="I98" s="25"/>
       <c r="J98" s="26"/>
       <c r="K98" s="19"/>
-      <c r="L98" s="27"/>
+      <c r="L98" s="19"/>
       <c r="M98" s="27"/>
       <c r="N98" s="28"/>
       <c r="O98" s="22"/>
@@ -4428,7 +4427,7 @@
       <c r="I99" s="25"/>
       <c r="J99" s="26"/>
       <c r="K99" s="19"/>
-      <c r="L99" s="27"/>
+      <c r="L99" s="19"/>
       <c r="M99" s="27"/>
       <c r="N99" s="28"/>
       <c r="O99" s="22"/>
@@ -4451,7 +4450,7 @@
       <c r="I100" s="25"/>
       <c r="J100" s="26"/>
       <c r="K100" s="19"/>
-      <c r="L100" s="27"/>
+      <c r="L100" s="19"/>
       <c r="M100" s="27"/>
       <c r="N100" s="28"/>
       <c r="O100" s="22"/>
@@ -4474,7 +4473,7 @@
       <c r="I101" s="25"/>
       <c r="J101" s="26"/>
       <c r="K101" s="19"/>
-      <c r="L101" s="27"/>
+      <c r="L101" s="19"/>
       <c r="M101" s="27"/>
       <c r="N101" s="28"/>
       <c r="O101" s="22"/>
@@ -4497,7 +4496,7 @@
       <c r="I102" s="25"/>
       <c r="J102" s="26"/>
       <c r="K102" s="19"/>
-      <c r="L102" s="27"/>
+      <c r="L102" s="19"/>
       <c r="M102" s="27"/>
       <c r="N102" s="28"/>
       <c r="O102" s="22"/>
@@ -4520,7 +4519,7 @@
       <c r="I103" s="25"/>
       <c r="J103" s="26"/>
       <c r="K103" s="19"/>
-      <c r="L103" s="27"/>
+      <c r="L103" s="19"/>
       <c r="M103" s="27"/>
       <c r="N103" s="28"/>
       <c r="O103" s="22"/>
@@ -4543,7 +4542,7 @@
       <c r="I104" s="25"/>
       <c r="J104" s="26"/>
       <c r="K104" s="19"/>
-      <c r="L104" s="27"/>
+      <c r="L104" s="19"/>
       <c r="M104" s="27"/>
       <c r="N104" s="28"/>
       <c r="O104" s="22"/>
@@ -4566,7 +4565,7 @@
       <c r="I105" s="25"/>
       <c r="J105" s="26"/>
       <c r="K105" s="19"/>
-      <c r="L105" s="27"/>
+      <c r="L105" s="19"/>
       <c r="M105" s="27"/>
       <c r="N105" s="28"/>
       <c r="O105" s="22"/>
@@ -4589,7 +4588,7 @@
       <c r="I106" s="25"/>
       <c r="J106" s="26"/>
       <c r="K106" s="19"/>
-      <c r="L106" s="27"/>
+      <c r="L106" s="19"/>
       <c r="M106" s="27"/>
       <c r="N106" s="28"/>
       <c r="O106" s="22"/>
@@ -4612,7 +4611,7 @@
       <c r="I107" s="25"/>
       <c r="J107" s="26"/>
       <c r="K107" s="19"/>
-      <c r="L107" s="27"/>
+      <c r="L107" s="19"/>
       <c r="M107" s="27"/>
       <c r="N107" s="28"/>
       <c r="O107" s="22"/>
@@ -4635,7 +4634,7 @@
       <c r="I108" s="25"/>
       <c r="J108" s="26"/>
       <c r="K108" s="19"/>
-      <c r="L108" s="27"/>
+      <c r="L108" s="19"/>
       <c r="M108" s="27"/>
       <c r="N108" s="28"/>
       <c r="O108" s="22"/>
@@ -4658,7 +4657,7 @@
       <c r="I109" s="25"/>
       <c r="J109" s="26"/>
       <c r="K109" s="19"/>
-      <c r="L109" s="27"/>
+      <c r="L109" s="19"/>
       <c r="M109" s="27"/>
       <c r="N109" s="28"/>
       <c r="O109" s="22"/>
@@ -4681,7 +4680,7 @@
       <c r="I110" s="25"/>
       <c r="J110" s="26"/>
       <c r="K110" s="19"/>
-      <c r="L110" s="27"/>
+      <c r="L110" s="19"/>
       <c r="M110" s="27"/>
       <c r="N110" s="28"/>
       <c r="O110" s="22"/>
@@ -4704,7 +4703,7 @@
       <c r="I111" s="25"/>
       <c r="J111" s="26"/>
       <c r="K111" s="19"/>
-      <c r="L111" s="27"/>
+      <c r="L111" s="19"/>
       <c r="M111" s="27"/>
       <c r="N111" s="28"/>
       <c r="O111" s="22"/>
@@ -4727,7 +4726,7 @@
       <c r="I112" s="25"/>
       <c r="J112" s="26"/>
       <c r="K112" s="19"/>
-      <c r="L112" s="27"/>
+      <c r="L112" s="19"/>
       <c r="M112" s="27"/>
       <c r="N112" s="28"/>
       <c r="O112" s="22"/>
@@ -4750,7 +4749,7 @@
       <c r="I113" s="25"/>
       <c r="J113" s="26"/>
       <c r="K113" s="19"/>
-      <c r="L113" s="27"/>
+      <c r="L113" s="19"/>
       <c r="M113" s="27"/>
       <c r="N113" s="28"/>
       <c r="O113" s="22"/>
@@ -4773,7 +4772,7 @@
       <c r="I114" s="25"/>
       <c r="J114" s="26"/>
       <c r="K114" s="19"/>
-      <c r="L114" s="27"/>
+      <c r="L114" s="19"/>
       <c r="M114" s="27"/>
       <c r="N114" s="28"/>
       <c r="O114" s="22"/>
@@ -4796,7 +4795,7 @@
       <c r="I115" s="25"/>
       <c r="J115" s="26"/>
       <c r="K115" s="19"/>
-      <c r="L115" s="27"/>
+      <c r="L115" s="19"/>
       <c r="M115" s="27"/>
       <c r="N115" s="28"/>
       <c r="O115" s="22"/>
@@ -4819,7 +4818,7 @@
       <c r="I116" s="25"/>
       <c r="J116" s="26"/>
       <c r="K116" s="19"/>
-      <c r="L116" s="27"/>
+      <c r="L116" s="19"/>
       <c r="M116" s="27"/>
       <c r="N116" s="28"/>
       <c r="O116" s="22"/>
@@ -4842,7 +4841,7 @@
       <c r="I117" s="25"/>
       <c r="J117" s="26"/>
       <c r="K117" s="19"/>
-      <c r="L117" s="27"/>
+      <c r="L117" s="19"/>
       <c r="M117" s="27"/>
       <c r="N117" s="28"/>
       <c r="O117" s="22"/>
@@ -4865,7 +4864,7 @@
       <c r="I118" s="25"/>
       <c r="J118" s="26"/>
       <c r="K118" s="19"/>
-      <c r="L118" s="27"/>
+      <c r="L118" s="19"/>
       <c r="M118" s="27"/>
       <c r="N118" s="28"/>
       <c r="O118" s="22"/>
@@ -4888,7 +4887,7 @@
       <c r="I119" s="25"/>
       <c r="J119" s="26"/>
       <c r="K119" s="19"/>
-      <c r="L119" s="27"/>
+      <c r="L119" s="19"/>
       <c r="M119" s="27"/>
       <c r="N119" s="28"/>
       <c r="O119" s="22"/>
@@ -4911,7 +4910,7 @@
       <c r="I120" s="25"/>
       <c r="J120" s="26"/>
       <c r="K120" s="19"/>
-      <c r="L120" s="27"/>
+      <c r="L120" s="19"/>
       <c r="M120" s="27"/>
       <c r="N120" s="28"/>
       <c r="O120" s="22"/>
@@ -4934,7 +4933,7 @@
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
       <c r="K121" s="19"/>
-      <c r="L121" s="27"/>
+      <c r="L121" s="19"/>
       <c r="M121" s="27"/>
       <c r="N121" s="28"/>
       <c r="O121" s="22"/>
@@ -4957,7 +4956,7 @@
       <c r="I122" s="25"/>
       <c r="J122" s="26"/>
       <c r="K122" s="19"/>
-      <c r="L122" s="27"/>
+      <c r="L122" s="19"/>
       <c r="M122" s="27"/>
       <c r="N122" s="28"/>
       <c r="O122" s="22"/>
@@ -4980,7 +4979,7 @@
       <c r="I123" s="25"/>
       <c r="J123" s="26"/>
       <c r="K123" s="19"/>
-      <c r="L123" s="27"/>
+      <c r="L123" s="19"/>
       <c r="M123" s="27"/>
       <c r="N123" s="28"/>
       <c r="O123" s="22"/>
@@ -5003,7 +5002,7 @@
       <c r="I124" s="25"/>
       <c r="J124" s="26"/>
       <c r="K124" s="19"/>
-      <c r="L124" s="27"/>
+      <c r="L124" s="19"/>
       <c r="M124" s="27"/>
       <c r="N124" s="28"/>
       <c r="O124" s="22"/>
@@ -5026,7 +5025,7 @@
       <c r="I125" s="25"/>
       <c r="J125" s="26"/>
       <c r="K125" s="19"/>
-      <c r="L125" s="27"/>
+      <c r="L125" s="19"/>
       <c r="M125" s="27"/>
       <c r="N125" s="28"/>
       <c r="O125" s="22"/>
@@ -5049,7 +5048,7 @@
       <c r="I126" s="25"/>
       <c r="J126" s="26"/>
       <c r="K126" s="19"/>
-      <c r="L126" s="27"/>
+      <c r="L126" s="19"/>
       <c r="M126" s="27"/>
       <c r="N126" s="28"/>
       <c r="O126" s="22"/>
@@ -5072,7 +5071,7 @@
       <c r="I127" s="25"/>
       <c r="J127" s="26"/>
       <c r="K127" s="19"/>
-      <c r="L127" s="27"/>
+      <c r="L127" s="19"/>
       <c r="M127" s="27"/>
       <c r="N127" s="28"/>
       <c r="O127" s="22"/>
@@ -5095,7 +5094,7 @@
       <c r="I128" s="25"/>
       <c r="J128" s="26"/>
       <c r="K128" s="19"/>
-      <c r="L128" s="27"/>
+      <c r="L128" s="19"/>
       <c r="M128" s="27"/>
       <c r="N128" s="28"/>
       <c r="O128" s="22"/>
@@ -5118,7 +5117,7 @@
       <c r="I129" s="25"/>
       <c r="J129" s="26"/>
       <c r="K129" s="19"/>
-      <c r="L129" s="27"/>
+      <c r="L129" s="19"/>
       <c r="M129" s="27"/>
       <c r="N129" s="28"/>
       <c r="O129" s="22"/>
@@ -5141,7 +5140,7 @@
       <c r="I130" s="25"/>
       <c r="J130" s="26"/>
       <c r="K130" s="19"/>
-      <c r="L130" s="27"/>
+      <c r="L130" s="19"/>
       <c r="M130" s="27"/>
       <c r="N130" s="28"/>
       <c r="O130" s="22"/>
@@ -5164,7 +5163,7 @@
       <c r="I131" s="25"/>
       <c r="J131" s="26"/>
       <c r="K131" s="19"/>
-      <c r="L131" s="27"/>
+      <c r="L131" s="19"/>
       <c r="M131" s="27"/>
       <c r="N131" s="28"/>
       <c r="O131" s="22"/>
@@ -5187,7 +5186,7 @@
       <c r="I132" s="25"/>
       <c r="J132" s="26"/>
       <c r="K132" s="19"/>
-      <c r="L132" s="27"/>
+      <c r="L132" s="19"/>
       <c r="M132" s="27"/>
       <c r="N132" s="28"/>
       <c r="O132" s="22"/>
@@ -5210,7 +5209,7 @@
       <c r="I133" s="25"/>
       <c r="J133" s="26"/>
       <c r="K133" s="19"/>
-      <c r="L133" s="27"/>
+      <c r="L133" s="19"/>
       <c r="M133" s="27"/>
       <c r="N133" s="28"/>
       <c r="O133" s="22"/>
@@ -5233,7 +5232,7 @@
       <c r="I134" s="25"/>
       <c r="J134" s="26"/>
       <c r="K134" s="19"/>
-      <c r="L134" s="27"/>
+      <c r="L134" s="19"/>
       <c r="M134" s="27"/>
       <c r="N134" s="28"/>
       <c r="O134" s="22"/>
@@ -5256,7 +5255,7 @@
       <c r="I135" s="25"/>
       <c r="J135" s="26"/>
       <c r="K135" s="19"/>
-      <c r="L135" s="27"/>
+      <c r="L135" s="19"/>
       <c r="M135" s="27"/>
       <c r="N135" s="28"/>
       <c r="O135" s="22"/>
@@ -5279,7 +5278,7 @@
       <c r="I136" s="25"/>
       <c r="J136" s="26"/>
       <c r="K136" s="19"/>
-      <c r="L136" s="27"/>
+      <c r="L136" s="19"/>
       <c r="M136" s="27"/>
       <c r="N136" s="28"/>
       <c r="O136" s="22"/>
@@ -5302,7 +5301,7 @@
       <c r="I137" s="25"/>
       <c r="J137" s="26"/>
       <c r="K137" s="19"/>
-      <c r="L137" s="27"/>
+      <c r="L137" s="19"/>
       <c r="M137" s="27"/>
       <c r="N137" s="28"/>
       <c r="O137" s="22"/>
@@ -5325,7 +5324,7 @@
       <c r="I138" s="25"/>
       <c r="J138" s="26"/>
       <c r="K138" s="19"/>
-      <c r="L138" s="27"/>
+      <c r="L138" s="19"/>
       <c r="M138" s="27"/>
       <c r="N138" s="28"/>
       <c r="O138" s="22"/>
@@ -5348,7 +5347,7 @@
       <c r="I139" s="25"/>
       <c r="J139" s="26"/>
       <c r="K139" s="19"/>
-      <c r="L139" s="27"/>
+      <c r="L139" s="19"/>
       <c r="M139" s="27"/>
       <c r="N139" s="28"/>
       <c r="O139" s="22"/>
@@ -5371,7 +5370,7 @@
       <c r="I140" s="25"/>
       <c r="J140" s="26"/>
       <c r="K140" s="19"/>
-      <c r="L140" s="27"/>
+      <c r="L140" s="19"/>
       <c r="M140" s="27"/>
       <c r="N140" s="28"/>
       <c r="O140" s="22"/>
@@ -5394,7 +5393,7 @@
       <c r="I141" s="25"/>
       <c r="J141" s="26"/>
       <c r="K141" s="19"/>
-      <c r="L141" s="27"/>
+      <c r="L141" s="19"/>
       <c r="M141" s="27"/>
       <c r="N141" s="28"/>
       <c r="O141" s="22"/>
@@ -5417,7 +5416,7 @@
       <c r="I142" s="25"/>
       <c r="J142" s="26"/>
       <c r="K142" s="19"/>
-      <c r="L142" s="27"/>
+      <c r="L142" s="19"/>
       <c r="M142" s="27"/>
       <c r="N142" s="28"/>
       <c r="O142" s="22"/>
@@ -5440,7 +5439,7 @@
       <c r="I143" s="25"/>
       <c r="J143" s="26"/>
       <c r="K143" s="19"/>
-      <c r="L143" s="27"/>
+      <c r="L143" s="19"/>
       <c r="M143" s="27"/>
       <c r="N143" s="28"/>
       <c r="O143" s="22"/>
@@ -5463,7 +5462,7 @@
       <c r="I144" s="25"/>
       <c r="J144" s="26"/>
       <c r="K144" s="19"/>
-      <c r="L144" s="27"/>
+      <c r="L144" s="19"/>
       <c r="M144" s="27"/>
       <c r="N144" s="28"/>
       <c r="O144" s="22"/>
@@ -5486,7 +5485,7 @@
       <c r="I145" s="25"/>
       <c r="J145" s="26"/>
       <c r="K145" s="19"/>
-      <c r="L145" s="27"/>
+      <c r="L145" s="19"/>
       <c r="M145" s="27"/>
       <c r="N145" s="28"/>
       <c r="O145" s="22"/>
@@ -5509,7 +5508,7 @@
       <c r="I146" s="25"/>
       <c r="J146" s="26"/>
       <c r="K146" s="19"/>
-      <c r="L146" s="27"/>
+      <c r="L146" s="19"/>
       <c r="M146" s="27"/>
       <c r="N146" s="28"/>
       <c r="O146" s="22"/>
@@ -5532,7 +5531,7 @@
       <c r="I147" s="25"/>
       <c r="J147" s="26"/>
       <c r="K147" s="19"/>
-      <c r="L147" s="27"/>
+      <c r="L147" s="19"/>
       <c r="M147" s="27"/>
       <c r="N147" s="28"/>
       <c r="O147" s="22"/>
@@ -5555,7 +5554,7 @@
       <c r="I148" s="25"/>
       <c r="J148" s="26"/>
       <c r="K148" s="19"/>
-      <c r="L148" s="27"/>
+      <c r="L148" s="19"/>
       <c r="M148" s="27"/>
       <c r="N148" s="28"/>
       <c r="O148" s="22"/>
@@ -5578,7 +5577,7 @@
       <c r="I149" s="25"/>
       <c r="J149" s="26"/>
       <c r="K149" s="19"/>
-      <c r="L149" s="27"/>
+      <c r="L149" s="19"/>
       <c r="M149" s="27"/>
       <c r="N149" s="28"/>
       <c r="O149" s="22"/>
@@ -5601,7 +5600,7 @@
       <c r="I150" s="25"/>
       <c r="J150" s="26"/>
       <c r="K150" s="19"/>
-      <c r="L150" s="27"/>
+      <c r="L150" s="19"/>
       <c r="M150" s="27"/>
       <c r="N150" s="28"/>
       <c r="O150" s="22"/>
@@ -5624,7 +5623,7 @@
       <c r="I151" s="25"/>
       <c r="J151" s="26"/>
       <c r="K151" s="19"/>
-      <c r="L151" s="27"/>
+      <c r="L151" s="19"/>
       <c r="M151" s="27"/>
       <c r="N151" s="28"/>
       <c r="O151" s="22"/>
@@ -5647,7 +5646,7 @@
       <c r="I152" s="25"/>
       <c r="J152" s="26"/>
       <c r="K152" s="19"/>
-      <c r="L152" s="27"/>
+      <c r="L152" s="19"/>
       <c r="M152" s="27"/>
       <c r="N152" s="28"/>
       <c r="O152" s="22"/>
@@ -5670,7 +5669,7 @@
       <c r="I153" s="25"/>
       <c r="J153" s="26"/>
       <c r="K153" s="19"/>
-      <c r="L153" s="27"/>
+      <c r="L153" s="19"/>
       <c r="M153" s="27"/>
       <c r="N153" s="28"/>
       <c r="O153" s="22"/>
@@ -5693,7 +5692,7 @@
       <c r="I154" s="25"/>
       <c r="J154" s="26"/>
       <c r="K154" s="19"/>
-      <c r="L154" s="27"/>
+      <c r="L154" s="19"/>
       <c r="M154" s="27"/>
       <c r="N154" s="28"/>
       <c r="O154" s="22"/>
@@ -5716,7 +5715,7 @@
       <c r="I155" s="25"/>
       <c r="J155" s="26"/>
       <c r="K155" s="19"/>
-      <c r="L155" s="27"/>
+      <c r="L155" s="19"/>
       <c r="M155" s="27"/>
       <c r="N155" s="28"/>
       <c r="O155" s="22"/>
@@ -5739,7 +5738,7 @@
       <c r="I156" s="25"/>
       <c r="J156" s="26"/>
       <c r="K156" s="19"/>
-      <c r="L156" s="27"/>
+      <c r="L156" s="19"/>
       <c r="M156" s="27"/>
       <c r="N156" s="28"/>
       <c r="O156" s="22"/>
@@ -5762,7 +5761,7 @@
       <c r="I157" s="25"/>
       <c r="J157" s="26"/>
       <c r="K157" s="19"/>
-      <c r="L157" s="27"/>
+      <c r="L157" s="19"/>
       <c r="M157" s="27"/>
       <c r="N157" s="28"/>
       <c r="O157" s="22"/>
@@ -5785,7 +5784,7 @@
       <c r="I158" s="25"/>
       <c r="J158" s="26"/>
       <c r="K158" s="19"/>
-      <c r="L158" s="27"/>
+      <c r="L158" s="19"/>
       <c r="M158" s="27"/>
       <c r="N158" s="28"/>
       <c r="O158" s="22"/>
@@ -5808,7 +5807,7 @@
       <c r="I159" s="25"/>
       <c r="J159" s="26"/>
       <c r="K159" s="19"/>
-      <c r="L159" s="27"/>
+      <c r="L159" s="19"/>
       <c r="M159" s="27"/>
       <c r="N159" s="28"/>
       <c r="O159" s="22"/>
@@ -5831,7 +5830,7 @@
       <c r="I160" s="25"/>
       <c r="J160" s="26"/>
       <c r="K160" s="19"/>
-      <c r="L160" s="27"/>
+      <c r="L160" s="19"/>
       <c r="M160" s="27"/>
       <c r="N160" s="28"/>
       <c r="O160" s="22"/>
@@ -5854,7 +5853,7 @@
       <c r="I161" s="25"/>
       <c r="J161" s="26"/>
       <c r="K161" s="19"/>
-      <c r="L161" s="27"/>
+      <c r="L161" s="19"/>
       <c r="M161" s="27"/>
       <c r="N161" s="28"/>
       <c r="O161" s="22"/>
@@ -5877,7 +5876,7 @@
       <c r="I162" s="25"/>
       <c r="J162" s="26"/>
       <c r="K162" s="19"/>
-      <c r="L162" s="27"/>
+      <c r="L162" s="19"/>
       <c r="M162" s="27"/>
       <c r="N162" s="28"/>
       <c r="O162" s="22"/>
@@ -5900,7 +5899,7 @@
       <c r="I163" s="25"/>
       <c r="J163" s="26"/>
       <c r="K163" s="19"/>
-      <c r="L163" s="27"/>
+      <c r="L163" s="19"/>
       <c r="M163" s="27"/>
       <c r="N163" s="28"/>
       <c r="O163" s="22"/>
@@ -5923,7 +5922,7 @@
       <c r="I164" s="25"/>
       <c r="J164" s="26"/>
       <c r="K164" s="19"/>
-      <c r="L164" s="27"/>
+      <c r="L164" s="19"/>
       <c r="M164" s="27"/>
       <c r="N164" s="28"/>
       <c r="O164" s="22"/>
@@ -5946,7 +5945,7 @@
       <c r="I165" s="25"/>
       <c r="J165" s="26"/>
       <c r="K165" s="19"/>
-      <c r="L165" s="27"/>
+      <c r="L165" s="19"/>
       <c r="M165" s="27"/>
       <c r="N165" s="28"/>
       <c r="O165" s="22"/>
@@ -5969,7 +5968,7 @@
       <c r="I166" s="25"/>
       <c r="J166" s="26"/>
       <c r="K166" s="19"/>
-      <c r="L166" s="27"/>
+      <c r="L166" s="19"/>
       <c r="M166" s="27"/>
       <c r="N166" s="28"/>
       <c r="O166" s="22"/>
@@ -5992,7 +5991,7 @@
       <c r="I167" s="25"/>
       <c r="J167" s="26"/>
       <c r="K167" s="19"/>
-      <c r="L167" s="27"/>
+      <c r="L167" s="19"/>
       <c r="M167" s="27"/>
       <c r="N167" s="28"/>
       <c r="O167" s="22"/>
@@ -6015,7 +6014,7 @@
       <c r="I168" s="25"/>
       <c r="J168" s="26"/>
       <c r="K168" s="19"/>
-      <c r="L168" s="27"/>
+      <c r="L168" s="19"/>
       <c r="M168" s="27"/>
       <c r="N168" s="28"/>
       <c r="O168" s="22"/>
@@ -6038,7 +6037,7 @@
       <c r="I169" s="25"/>
       <c r="J169" s="26"/>
       <c r="K169" s="19"/>
-      <c r="L169" s="27"/>
+      <c r="L169" s="19"/>
       <c r="M169" s="27"/>
       <c r="N169" s="28"/>
       <c r="O169" s="22"/>
@@ -6061,7 +6060,7 @@
       <c r="I170" s="25"/>
       <c r="J170" s="26"/>
       <c r="K170" s="19"/>
-      <c r="L170" s="27"/>
+      <c r="L170" s="19"/>
       <c r="M170" s="27"/>
       <c r="N170" s="28"/>
       <c r="O170" s="22"/>
@@ -6084,7 +6083,7 @@
       <c r="I171" s="25"/>
       <c r="J171" s="26"/>
       <c r="K171" s="19"/>
-      <c r="L171" s="27"/>
+      <c r="L171" s="19"/>
       <c r="M171" s="27"/>
       <c r="N171" s="28"/>
       <c r="O171" s="22"/>
@@ -6107,7 +6106,7 @@
       <c r="I172" s="25"/>
       <c r="J172" s="26"/>
       <c r="K172" s="19"/>
-      <c r="L172" s="27"/>
+      <c r="L172" s="19"/>
       <c r="M172" s="27"/>
       <c r="N172" s="28"/>
       <c r="O172" s="22"/>
@@ -6130,7 +6129,7 @@
       <c r="I173" s="25"/>
       <c r="J173" s="26"/>
       <c r="K173" s="19"/>
-      <c r="L173" s="27"/>
+      <c r="L173" s="19"/>
       <c r="M173" s="27"/>
       <c r="N173" s="28"/>
       <c r="O173" s="22"/>
@@ -6153,7 +6152,7 @@
       <c r="I174" s="25"/>
       <c r="J174" s="26"/>
       <c r="K174" s="19"/>
-      <c r="L174" s="27"/>
+      <c r="L174" s="19"/>
       <c r="M174" s="27"/>
       <c r="N174" s="28"/>
       <c r="O174" s="22"/>
@@ -6176,7 +6175,7 @@
       <c r="I175" s="25"/>
       <c r="J175" s="26"/>
       <c r="K175" s="19"/>
-      <c r="L175" s="27"/>
+      <c r="L175" s="19"/>
       <c r="M175" s="27"/>
       <c r="N175" s="28"/>
       <c r="O175" s="22"/>
@@ -6199,7 +6198,7 @@
       <c r="I176" s="25"/>
       <c r="J176" s="26"/>
       <c r="K176" s="19"/>
-      <c r="L176" s="27"/>
+      <c r="L176" s="19"/>
       <c r="M176" s="27"/>
       <c r="N176" s="28"/>
       <c r="O176" s="22"/>
@@ -6222,7 +6221,7 @@
       <c r="I177" s="25"/>
       <c r="J177" s="26"/>
       <c r="K177" s="19"/>
-      <c r="L177" s="27"/>
+      <c r="L177" s="19"/>
       <c r="M177" s="27"/>
       <c r="N177" s="28"/>
       <c r="O177" s="22"/>
@@ -6245,7 +6244,7 @@
       <c r="I178" s="25"/>
       <c r="J178" s="26"/>
       <c r="K178" s="19"/>
-      <c r="L178" s="27"/>
+      <c r="L178" s="19"/>
       <c r="M178" s="27"/>
       <c r="N178" s="28"/>
       <c r="O178" s="22"/>
@@ -6268,7 +6267,7 @@
       <c r="I179" s="25"/>
       <c r="J179" s="26"/>
       <c r="K179" s="19"/>
-      <c r="L179" s="27"/>
+      <c r="L179" s="19"/>
       <c r="M179" s="27"/>
       <c r="N179" s="28"/>
       <c r="O179" s="22"/>
@@ -6291,7 +6290,7 @@
       <c r="I180" s="25"/>
       <c r="J180" s="26"/>
       <c r="K180" s="19"/>
-      <c r="L180" s="27"/>
+      <c r="L180" s="19"/>
       <c r="M180" s="27"/>
       <c r="N180" s="28"/>
       <c r="O180" s="22"/>
@@ -6314,7 +6313,7 @@
       <c r="I181" s="25"/>
       <c r="J181" s="26"/>
       <c r="K181" s="19"/>
-      <c r="L181" s="27"/>
+      <c r="L181" s="19"/>
       <c r="M181" s="27"/>
       <c r="N181" s="28"/>
       <c r="O181" s="22"/>
@@ -6337,7 +6336,7 @@
       <c r="I182" s="25"/>
       <c r="J182" s="26"/>
       <c r="K182" s="19"/>
-      <c r="L182" s="27"/>
+      <c r="L182" s="19"/>
       <c r="M182" s="27"/>
       <c r="N182" s="28"/>
       <c r="O182" s="22"/>
@@ -6360,7 +6359,7 @@
       <c r="I183" s="25"/>
       <c r="J183" s="26"/>
       <c r="K183" s="19"/>
-      <c r="L183" s="27"/>
+      <c r="L183" s="19"/>
       <c r="M183" s="27"/>
       <c r="N183" s="28"/>
       <c r="O183" s="22"/>
@@ -6383,7 +6382,7 @@
       <c r="I184" s="25"/>
       <c r="J184" s="26"/>
       <c r="K184" s="19"/>
-      <c r="L184" s="27"/>
+      <c r="L184" s="19"/>
       <c r="M184" s="27"/>
       <c r="N184" s="28"/>
       <c r="O184" s="22"/>
@@ -6406,7 +6405,7 @@
       <c r="I185" s="25"/>
       <c r="J185" s="26"/>
       <c r="K185" s="19"/>
-      <c r="L185" s="27"/>
+      <c r="L185" s="19"/>
       <c r="M185" s="27"/>
       <c r="N185" s="28"/>
       <c r="O185" s="22"/>
@@ -6429,7 +6428,7 @@
       <c r="I186" s="25"/>
       <c r="J186" s="26"/>
       <c r="K186" s="19"/>
-      <c r="L186" s="27"/>
+      <c r="L186" s="19"/>
       <c r="M186" s="27"/>
       <c r="N186" s="28"/>
       <c r="O186" s="22"/>
@@ -6452,7 +6451,7 @@
       <c r="I187" s="25"/>
       <c r="J187" s="26"/>
       <c r="K187" s="19"/>
-      <c r="L187" s="27"/>
+      <c r="L187" s="19"/>
       <c r="M187" s="27"/>
       <c r="N187" s="28"/>
       <c r="O187" s="22"/>
@@ -6475,7 +6474,7 @@
       <c r="I188" s="25"/>
       <c r="J188" s="26"/>
       <c r="K188" s="19"/>
-      <c r="L188" s="27"/>
+      <c r="L188" s="19"/>
       <c r="M188" s="27"/>
       <c r="N188" s="28"/>
       <c r="O188" s="22"/>
@@ -6498,7 +6497,7 @@
       <c r="I189" s="25"/>
       <c r="J189" s="26"/>
       <c r="K189" s="19"/>
-      <c r="L189" s="27"/>
+      <c r="L189" s="19"/>
       <c r="M189" s="27"/>
       <c r="N189" s="28"/>
       <c r="O189" s="22"/>
@@ -6521,7 +6520,7 @@
       <c r="I190" s="25"/>
       <c r="J190" s="26"/>
       <c r="K190" s="19"/>
-      <c r="L190" s="27"/>
+      <c r="L190" s="19"/>
       <c r="M190" s="27"/>
       <c r="N190" s="28"/>
       <c r="O190" s="22"/>
@@ -6544,7 +6543,7 @@
       <c r="I191" s="25"/>
       <c r="J191" s="26"/>
       <c r="K191" s="19"/>
-      <c r="L191" s="27"/>
+      <c r="L191" s="19"/>
       <c r="M191" s="27"/>
       <c r="N191" s="28"/>
       <c r="O191" s="22"/>
@@ -6567,7 +6566,7 @@
       <c r="I192" s="25"/>
       <c r="J192" s="26"/>
       <c r="K192" s="19"/>
-      <c r="L192" s="27"/>
+      <c r="L192" s="19"/>
       <c r="M192" s="27"/>
       <c r="N192" s="28"/>
       <c r="O192" s="22"/>
@@ -6590,7 +6589,7 @@
       <c r="I193" s="25"/>
       <c r="J193" s="26"/>
       <c r="K193" s="19"/>
-      <c r="L193" s="27"/>
+      <c r="L193" s="19"/>
       <c r="M193" s="27"/>
       <c r="N193" s="28"/>
       <c r="O193" s="22"/>
@@ -6613,7 +6612,7 @@
       <c r="I194" s="25"/>
       <c r="J194" s="26"/>
       <c r="K194" s="19"/>
-      <c r="L194" s="27"/>
+      <c r="L194" s="19"/>
       <c r="M194" s="27"/>
       <c r="N194" s="28"/>
       <c r="O194" s="22"/>
@@ -6636,7 +6635,7 @@
       <c r="I195" s="25"/>
       <c r="J195" s="26"/>
       <c r="K195" s="19"/>
-      <c r="L195" s="27"/>
+      <c r="L195" s="19"/>
       <c r="M195" s="27"/>
       <c r="N195" s="28"/>
       <c r="O195" s="22"/>
@@ -6659,7 +6658,7 @@
       <c r="I196" s="25"/>
       <c r="J196" s="26"/>
       <c r="K196" s="19"/>
-      <c r="L196" s="27"/>
+      <c r="L196" s="19"/>
       <c r="M196" s="27"/>
       <c r="N196" s="28"/>
       <c r="O196" s="22"/>
@@ -6682,7 +6681,7 @@
       <c r="I197" s="25"/>
       <c r="J197" s="26"/>
       <c r="K197" s="19"/>
-      <c r="L197" s="27"/>
+      <c r="L197" s="19"/>
       <c r="M197" s="27"/>
       <c r="N197" s="28"/>
       <c r="O197" s="22"/>
@@ -6705,7 +6704,7 @@
       <c r="I198" s="25"/>
       <c r="J198" s="26"/>
       <c r="K198" s="19"/>
-      <c r="L198" s="27"/>
+      <c r="L198" s="19"/>
       <c r="M198" s="27"/>
       <c r="N198" s="28"/>
       <c r="O198" s="22"/>
@@ -6728,7 +6727,7 @@
       <c r="I199" s="25"/>
       <c r="J199" s="26"/>
       <c r="K199" s="19"/>
-      <c r="L199" s="27"/>
+      <c r="L199" s="19"/>
       <c r="M199" s="27"/>
       <c r="N199" s="28"/>
       <c r="O199" s="22"/>
@@ -6751,7 +6750,7 @@
       <c r="I200" s="25"/>
       <c r="J200" s="26"/>
       <c r="K200" s="19"/>
-      <c r="L200" s="27"/>
+      <c r="L200" s="19"/>
       <c r="M200" s="27"/>
       <c r="N200" s="28"/>
       <c r="O200" s="22"/>
@@ -6774,7 +6773,7 @@
       <c r="I201" s="25"/>
       <c r="J201" s="26"/>
       <c r="K201" s="19"/>
-      <c r="L201" s="27"/>
+      <c r="L201" s="19"/>
       <c r="M201" s="27"/>
       <c r="N201" s="28"/>
       <c r="O201" s="22"/>
@@ -6797,7 +6796,7 @@
       <c r="I202" s="25"/>
       <c r="J202" s="26"/>
       <c r="K202" s="19"/>
-      <c r="L202" s="27"/>
+      <c r="L202" s="19"/>
       <c r="M202" s="27"/>
       <c r="N202" s="28"/>
       <c r="O202" s="22"/>
@@ -6820,7 +6819,7 @@
       <c r="I203" s="25"/>
       <c r="J203" s="26"/>
       <c r="K203" s="19"/>
-      <c r="L203" s="27"/>
+      <c r="L203" s="19"/>
       <c r="M203" s="27"/>
       <c r="N203" s="28"/>
       <c r="O203" s="22"/>
@@ -6843,7 +6842,7 @@
       <c r="I204" s="25"/>
       <c r="J204" s="26"/>
       <c r="K204" s="19"/>
-      <c r="L204" s="27"/>
+      <c r="L204" s="19"/>
       <c r="M204" s="27"/>
       <c r="N204" s="28"/>
       <c r="O204" s="22"/>
@@ -6866,7 +6865,7 @@
       <c r="I205" s="25"/>
       <c r="J205" s="26"/>
       <c r="K205" s="19"/>
-      <c r="L205" s="27"/>
+      <c r="L205" s="19"/>
       <c r="M205" s="27"/>
       <c r="N205" s="28"/>
       <c r="O205" s="22"/>
@@ -6889,7 +6888,7 @@
       <c r="I206" s="25"/>
       <c r="J206" s="26"/>
       <c r="K206" s="19"/>
-      <c r="L206" s="27"/>
+      <c r="L206" s="19"/>
       <c r="M206" s="27"/>
       <c r="N206" s="28"/>
       <c r="O206" s="22"/>
@@ -6912,7 +6911,7 @@
       <c r="I207" s="25"/>
       <c r="J207" s="26"/>
       <c r="K207" s="19"/>
-      <c r="L207" s="27"/>
+      <c r="L207" s="19"/>
       <c r="M207" s="27"/>
       <c r="N207" s="28"/>
       <c r="O207" s="22"/>
@@ -6935,7 +6934,7 @@
       <c r="I208" s="25"/>
       <c r="J208" s="26"/>
       <c r="K208" s="19"/>
-      <c r="L208" s="27"/>
+      <c r="L208" s="19"/>
       <c r="M208" s="27"/>
       <c r="N208" s="28"/>
       <c r="O208" s="22"/>
@@ -6958,7 +6957,7 @@
       <c r="I209" s="25"/>
       <c r="J209" s="26"/>
       <c r="K209" s="19"/>
-      <c r="L209" s="27"/>
+      <c r="L209" s="19"/>
       <c r="M209" s="27"/>
       <c r="N209" s="28"/>
       <c r="O209" s="22"/>
@@ -6981,7 +6980,7 @@
       <c r="I210" s="25"/>
       <c r="J210" s="26"/>
       <c r="K210" s="19"/>
-      <c r="L210" s="27"/>
+      <c r="L210" s="19"/>
       <c r="M210" s="27"/>
       <c r="N210" s="28"/>
       <c r="O210" s="22"/>
@@ -7004,7 +7003,7 @@
       <c r="I211" s="25"/>
       <c r="J211" s="26"/>
       <c r="K211" s="19"/>
-      <c r="L211" s="27"/>
+      <c r="L211" s="19"/>
       <c r="M211" s="27"/>
       <c r="N211" s="28"/>
       <c r="O211" s="22"/>
@@ -7027,7 +7026,7 @@
       <c r="I212" s="25"/>
       <c r="J212" s="26"/>
       <c r="K212" s="19"/>
-      <c r="L212" s="27"/>
+      <c r="L212" s="19"/>
       <c r="M212" s="27"/>
       <c r="N212" s="28"/>
       <c r="O212" s="22"/>
@@ -7050,7 +7049,7 @@
       <c r="I213" s="25"/>
       <c r="J213" s="26"/>
       <c r="K213" s="19"/>
-      <c r="L213" s="27"/>
+      <c r="L213" s="19"/>
       <c r="M213" s="27"/>
       <c r="N213" s="28"/>
       <c r="O213" s="22"/>
@@ -7073,7 +7072,7 @@
       <c r="I214" s="25"/>
       <c r="J214" s="26"/>
       <c r="K214" s="19"/>
-      <c r="L214" s="27"/>
+      <c r="L214" s="19"/>
       <c r="M214" s="27"/>
       <c r="N214" s="28"/>
       <c r="O214" s="22"/>
@@ -7096,7 +7095,7 @@
       <c r="I215" s="25"/>
       <c r="J215" s="26"/>
       <c r="K215" s="19"/>
-      <c r="L215" s="27"/>
+      <c r="L215" s="19"/>
       <c r="M215" s="27"/>
       <c r="N215" s="28"/>
       <c r="O215" s="22"/>
@@ -7119,7 +7118,7 @@
       <c r="I216" s="25"/>
       <c r="J216" s="26"/>
       <c r="K216" s="19"/>
-      <c r="L216" s="27"/>
+      <c r="L216" s="19"/>
       <c r="M216" s="27"/>
       <c r="N216" s="28"/>
       <c r="O216" s="22"/>
@@ -7142,7 +7141,7 @@
       <c r="I217" s="25"/>
       <c r="J217" s="26"/>
       <c r="K217" s="19"/>
-      <c r="L217" s="27"/>
+      <c r="L217" s="19"/>
       <c r="M217" s="27"/>
       <c r="N217" s="28"/>
       <c r="O217" s="22"/>
@@ -7165,7 +7164,7 @@
       <c r="I218" s="25"/>
       <c r="J218" s="26"/>
       <c r="K218" s="19"/>
-      <c r="L218" s="27"/>
+      <c r="L218" s="19"/>
       <c r="M218" s="27"/>
       <c r="N218" s="28"/>
       <c r="O218" s="22"/>
@@ -7188,7 +7187,7 @@
       <c r="I219" s="25"/>
       <c r="J219" s="26"/>
       <c r="K219" s="19"/>
-      <c r="L219" s="27"/>
+      <c r="L219" s="19"/>
       <c r="M219" s="27"/>
       <c r="N219" s="28"/>
       <c r="O219" s="22"/>
@@ -7211,7 +7210,7 @@
       <c r="I220" s="25"/>
       <c r="J220" s="26"/>
       <c r="K220" s="19"/>
-      <c r="L220" s="27"/>
+      <c r="L220" s="19"/>
       <c r="M220" s="27"/>
       <c r="N220" s="28"/>
       <c r="O220" s="22"/>
@@ -7234,7 +7233,7 @@
       <c r="I221" s="25"/>
       <c r="J221" s="26"/>
       <c r="K221" s="19"/>
-      <c r="L221" s="27"/>
+      <c r="L221" s="19"/>
       <c r="M221" s="27"/>
       <c r="N221" s="28"/>
       <c r="O221" s="22"/>
@@ -7257,7 +7256,7 @@
       <c r="I222" s="25"/>
       <c r="J222" s="26"/>
       <c r="K222" s="19"/>
-      <c r="L222" s="27"/>
+      <c r="L222" s="19"/>
       <c r="M222" s="27"/>
       <c r="N222" s="28"/>
       <c r="O222" s="22"/>
@@ -7280,7 +7279,7 @@
       <c r="I223" s="25"/>
       <c r="J223" s="26"/>
       <c r="K223" s="19"/>
-      <c r="L223" s="27"/>
+      <c r="L223" s="19"/>
       <c r="M223" s="27"/>
       <c r="N223" s="28"/>
       <c r="O223" s="22"/>
@@ -7303,7 +7302,7 @@
       <c r="I224" s="25"/>
       <c r="J224" s="26"/>
       <c r="K224" s="19"/>
-      <c r="L224" s="27"/>
+      <c r="L224" s="19"/>
       <c r="M224" s="27"/>
       <c r="N224" s="28"/>
       <c r="O224" s="22"/>
@@ -7326,7 +7325,7 @@
       <c r="I225" s="25"/>
       <c r="J225" s="26"/>
       <c r="K225" s="19"/>
-      <c r="L225" s="27"/>
+      <c r="L225" s="19"/>
       <c r="M225" s="27"/>
       <c r="N225" s="28"/>
       <c r="O225" s="22"/>
@@ -7349,7 +7348,7 @@
       <c r="I226" s="25"/>
       <c r="J226" s="26"/>
       <c r="K226" s="19"/>
-      <c r="L226" s="27"/>
+      <c r="L226" s="19"/>
       <c r="M226" s="27"/>
       <c r="N226" s="28"/>
       <c r="O226" s="22"/>
@@ -7372,7 +7371,7 @@
       <c r="I227" s="25"/>
       <c r="J227" s="26"/>
       <c r="K227" s="19"/>
-      <c r="L227" s="27"/>
+      <c r="L227" s="19"/>
       <c r="M227" s="27"/>
       <c r="N227" s="28"/>
       <c r="O227" s="22"/>
@@ -7395,7 +7394,7 @@
       <c r="I228" s="25"/>
       <c r="J228" s="26"/>
       <c r="K228" s="19"/>
-      <c r="L228" s="27"/>
+      <c r="L228" s="19"/>
       <c r="M228" s="27"/>
       <c r="N228" s="28"/>
       <c r="O228" s="22"/>
@@ -7418,7 +7417,7 @@
       <c r="I229" s="25"/>
       <c r="J229" s="26"/>
       <c r="K229" s="19"/>
-      <c r="L229" s="27"/>
+      <c r="L229" s="19"/>
       <c r="M229" s="27"/>
       <c r="N229" s="28"/>
       <c r="O229" s="22"/>
@@ -7441,7 +7440,7 @@
       <c r="I230" s="25"/>
       <c r="J230" s="26"/>
       <c r="K230" s="19"/>
-      <c r="L230" s="27"/>
+      <c r="L230" s="19"/>
       <c r="M230" s="27"/>
       <c r="N230" s="28"/>
       <c r="O230" s="22"/>
@@ -7464,7 +7463,7 @@
       <c r="I231" s="25"/>
       <c r="J231" s="26"/>
       <c r="K231" s="19"/>
-      <c r="L231" s="27"/>
+      <c r="L231" s="19"/>
       <c r="M231" s="27"/>
       <c r="N231" s="28"/>
       <c r="O231" s="22"/>
@@ -7487,7 +7486,7 @@
       <c r="I232" s="25"/>
       <c r="J232" s="26"/>
       <c r="K232" s="19"/>
-      <c r="L232" s="27"/>
+      <c r="L232" s="19"/>
       <c r="M232" s="27"/>
       <c r="N232" s="28"/>
       <c r="O232" s="22"/>
@@ -7510,7 +7509,7 @@
       <c r="I233" s="25"/>
       <c r="J233" s="26"/>
       <c r="K233" s="19"/>
-      <c r="L233" s="27"/>
+      <c r="L233" s="19"/>
       <c r="M233" s="27"/>
       <c r="N233" s="28"/>
       <c r="O233" s="22"/>
@@ -7533,7 +7532,7 @@
       <c r="I234" s="25"/>
       <c r="J234" s="26"/>
       <c r="K234" s="19"/>
-      <c r="L234" s="27"/>
+      <c r="L234" s="19"/>
       <c r="M234" s="27"/>
       <c r="N234" s="28"/>
       <c r="O234" s="22"/>
@@ -7556,7 +7555,7 @@
       <c r="I235" s="25"/>
       <c r="J235" s="26"/>
       <c r="K235" s="19"/>
-      <c r="L235" s="27"/>
+      <c r="L235" s="19"/>
       <c r="M235" s="27"/>
       <c r="N235" s="28"/>
       <c r="O235" s="22"/>
@@ -7579,7 +7578,7 @@
       <c r="I236" s="25"/>
       <c r="J236" s="26"/>
       <c r="K236" s="19"/>
-      <c r="L236" s="27"/>
+      <c r="L236" s="19"/>
       <c r="M236" s="27"/>
       <c r="N236" s="28"/>
       <c r="O236" s="22"/>
@@ -7602,7 +7601,7 @@
       <c r="I237" s="25"/>
       <c r="J237" s="26"/>
       <c r="K237" s="19"/>
-      <c r="L237" s="27"/>
+      <c r="L237" s="19"/>
       <c r="M237" s="27"/>
       <c r="N237" s="28"/>
       <c r="O237" s="22"/>
@@ -7625,7 +7624,7 @@
       <c r="I238" s="25"/>
       <c r="J238" s="26"/>
       <c r="K238" s="19"/>
-      <c r="L238" s="27"/>
+      <c r="L238" s="19"/>
       <c r="M238" s="27"/>
       <c r="N238" s="28"/>
       <c r="O238" s="22"/>
@@ -7648,7 +7647,7 @@
       <c r="I239" s="25"/>
       <c r="J239" s="26"/>
       <c r="K239" s="19"/>
-      <c r="L239" s="27"/>
+      <c r="L239" s="19"/>
       <c r="M239" s="27"/>
       <c r="N239" s="28"/>
       <c r="O239" s="22"/>
@@ -7671,7 +7670,7 @@
       <c r="I240" s="25"/>
       <c r="J240" s="26"/>
       <c r="K240" s="19"/>
-      <c r="L240" s="27"/>
+      <c r="L240" s="19"/>
       <c r="M240" s="27"/>
       <c r="N240" s="28"/>
       <c r="O240" s="22"/>
@@ -7694,7 +7693,7 @@
       <c r="I241" s="25"/>
       <c r="J241" s="26"/>
       <c r="K241" s="19"/>
-      <c r="L241" s="27"/>
+      <c r="L241" s="19"/>
       <c r="M241" s="27"/>
       <c r="N241" s="28"/>
       <c r="O241" s="22"/>
@@ -7717,7 +7716,7 @@
       <c r="I242" s="25"/>
       <c r="J242" s="26"/>
       <c r="K242" s="19"/>
-      <c r="L242" s="27"/>
+      <c r="L242" s="19"/>
       <c r="M242" s="27"/>
       <c r="N242" s="28"/>
       <c r="O242" s="22"/>
@@ -7740,7 +7739,7 @@
       <c r="I243" s="25"/>
       <c r="J243" s="26"/>
       <c r="K243" s="19"/>
-      <c r="L243" s="27"/>
+      <c r="L243" s="19"/>
       <c r="M243" s="27"/>
       <c r="N243" s="28"/>
       <c r="O243" s="22"/>
@@ -7763,7 +7762,7 @@
       <c r="I244" s="25"/>
       <c r="J244" s="26"/>
       <c r="K244" s="19"/>
-      <c r="L244" s="27"/>
+      <c r="L244" s="19"/>
       <c r="M244" s="27"/>
       <c r="N244" s="28"/>
       <c r="O244" s="22"/>
@@ -7786,7 +7785,7 @@
       <c r="I245" s="25"/>
       <c r="J245" s="26"/>
       <c r="K245" s="19"/>
-      <c r="L245" s="27"/>
+      <c r="L245" s="19"/>
       <c r="M245" s="27"/>
       <c r="N245" s="28"/>
       <c r="O245" s="22"/>
@@ -7809,7 +7808,7 @@
       <c r="I246" s="25"/>
       <c r="J246" s="26"/>
       <c r="K246" s="19"/>
-      <c r="L246" s="27"/>
+      <c r="L246" s="19"/>
       <c r="M246" s="27"/>
       <c r="N246" s="28"/>
       <c r="O246" s="22"/>
@@ -7832,7 +7831,7 @@
       <c r="I247" s="25"/>
       <c r="J247" s="26"/>
       <c r="K247" s="19"/>
-      <c r="L247" s="27"/>
+      <c r="L247" s="19"/>
       <c r="M247" s="27"/>
       <c r="N247" s="28"/>
       <c r="O247" s="22"/>
@@ -7855,7 +7854,7 @@
       <c r="I248" s="25"/>
       <c r="J248" s="26"/>
       <c r="K248" s="19"/>
-      <c r="L248" s="27"/>
+      <c r="L248" s="19"/>
       <c r="M248" s="27"/>
       <c r="N248" s="28"/>
       <c r="O248" s="22"/>
@@ -7878,7 +7877,7 @@
       <c r="I249" s="25"/>
       <c r="J249" s="26"/>
       <c r="K249" s="19"/>
-      <c r="L249" s="27"/>
+      <c r="L249" s="19"/>
       <c r="M249" s="27"/>
       <c r="N249" s="28"/>
       <c r="O249" s="22"/>
@@ -7901,7 +7900,7 @@
       <c r="I250" s="25"/>
       <c r="J250" s="26"/>
       <c r="K250" s="19"/>
-      <c r="L250" s="27"/>
+      <c r="L250" s="19"/>
       <c r="M250" s="27"/>
       <c r="N250" s="28"/>
       <c r="O250" s="22"/>
@@ -7924,7 +7923,7 @@
       <c r="I251" s="25"/>
       <c r="J251" s="26"/>
       <c r="K251" s="19"/>
-      <c r="L251" s="27"/>
+      <c r="L251" s="19"/>
       <c r="M251" s="27"/>
       <c r="N251" s="28"/>
       <c r="O251" s="22"/>
@@ -7947,7 +7946,7 @@
       <c r="I252" s="25"/>
       <c r="J252" s="26"/>
       <c r="K252" s="19"/>
-      <c r="L252" s="27"/>
+      <c r="L252" s="19"/>
       <c r="M252" s="27"/>
       <c r="N252" s="28"/>
       <c r="O252" s="22"/>
@@ -7970,7 +7969,7 @@
       <c r="I253" s="25"/>
       <c r="J253" s="26"/>
       <c r="K253" s="19"/>
-      <c r="L253" s="27"/>
+      <c r="L253" s="19"/>
       <c r="M253" s="27"/>
       <c r="N253" s="28"/>
       <c r="O253" s="22"/>
@@ -7993,7 +7992,7 @@
       <c r="I254" s="25"/>
       <c r="J254" s="26"/>
       <c r="K254" s="19"/>
-      <c r="L254" s="27"/>
+      <c r="L254" s="19"/>
       <c r="M254" s="27"/>
       <c r="N254" s="28"/>
       <c r="O254" s="22"/>
@@ -8016,7 +8015,7 @@
       <c r="I255" s="25"/>
       <c r="J255" s="26"/>
       <c r="K255" s="19"/>
-      <c r="L255" s="27"/>
+      <c r="L255" s="19"/>
       <c r="M255" s="27"/>
       <c r="N255" s="28"/>
       <c r="O255" s="22"/>
@@ -8039,7 +8038,7 @@
       <c r="I256" s="25"/>
       <c r="J256" s="26"/>
       <c r="K256" s="19"/>
-      <c r="L256" s="27"/>
+      <c r="L256" s="19"/>
       <c r="M256" s="27"/>
       <c r="N256" s="28"/>
       <c r="O256" s="22"/>
@@ -8062,7 +8061,7 @@
       <c r="I257" s="25"/>
       <c r="J257" s="26"/>
       <c r="K257" s="19"/>
-      <c r="L257" s="27"/>
+      <c r="L257" s="19"/>
       <c r="M257" s="27"/>
       <c r="N257" s="28"/>
       <c r="O257" s="22"/>
@@ -8085,7 +8084,7 @@
       <c r="I258" s="25"/>
       <c r="J258" s="26"/>
       <c r="K258" s="19"/>
-      <c r="L258" s="27"/>
+      <c r="L258" s="19"/>
       <c r="M258" s="27"/>
       <c r="N258" s="28"/>
       <c r="O258" s="22"/>
@@ -8108,7 +8107,7 @@
       <c r="I259" s="25"/>
       <c r="J259" s="26"/>
       <c r="K259" s="19"/>
-      <c r="L259" s="27"/>
+      <c r="L259" s="19"/>
       <c r="M259" s="27"/>
       <c r="N259" s="28"/>
       <c r="O259" s="22"/>
@@ -8131,7 +8130,7 @@
       <c r="I260" s="25"/>
       <c r="J260" s="26"/>
       <c r="K260" s="19"/>
-      <c r="L260" s="27"/>
+      <c r="L260" s="19"/>
       <c r="M260" s="27"/>
       <c r="N260" s="28"/>
       <c r="O260" s="22"/>
@@ -8154,7 +8153,7 @@
       <c r="I261" s="25"/>
       <c r="J261" s="26"/>
       <c r="K261" s="19"/>
-      <c r="L261" s="27"/>
+      <c r="L261" s="19"/>
       <c r="M261" s="27"/>
       <c r="N261" s="28"/>
       <c r="O261" s="22"/>
@@ -8177,7 +8176,7 @@
       <c r="I262" s="25"/>
       <c r="J262" s="26"/>
       <c r="K262" s="19"/>
-      <c r="L262" s="27"/>
+      <c r="L262" s="19"/>
       <c r="M262" s="27"/>
       <c r="N262" s="28"/>
       <c r="O262" s="22"/>
@@ -8200,7 +8199,7 @@
       <c r="I263" s="25"/>
       <c r="J263" s="26"/>
       <c r="K263" s="19"/>
-      <c r="L263" s="27"/>
+      <c r="L263" s="19"/>
       <c r="M263" s="27"/>
       <c r="N263" s="28"/>
       <c r="O263" s="22"/>
@@ -8223,7 +8222,7 @@
       <c r="I264" s="25"/>
       <c r="J264" s="26"/>
       <c r="K264" s="19"/>
-      <c r="L264" s="27"/>
+      <c r="L264" s="19"/>
       <c r="M264" s="27"/>
       <c r="N264" s="28"/>
       <c r="O264" s="22"/>
@@ -8246,7 +8245,7 @@
       <c r="I265" s="25"/>
       <c r="J265" s="26"/>
       <c r="K265" s="19"/>
-      <c r="L265" s="27"/>
+      <c r="L265" s="19"/>
       <c r="M265" s="27"/>
       <c r="N265" s="28"/>
       <c r="O265" s="22"/>
@@ -8269,7 +8268,7 @@
       <c r="I266" s="25"/>
       <c r="J266" s="26"/>
       <c r="K266" s="19"/>
-      <c r="L266" s="27"/>
+      <c r="L266" s="19"/>
       <c r="M266" s="27"/>
       <c r="N266" s="28"/>
       <c r="O266" s="22"/>
@@ -8292,7 +8291,7 @@
       <c r="I267" s="25"/>
       <c r="J267" s="26"/>
       <c r="K267" s="19"/>
-      <c r="L267" s="27"/>
+      <c r="L267" s="19"/>
       <c r="M267" s="27"/>
       <c r="N267" s="28"/>
       <c r="O267" s="22"/>
@@ -8315,7 +8314,7 @@
       <c r="I268" s="25"/>
       <c r="J268" s="26"/>
       <c r="K268" s="19"/>
-      <c r="L268" s="27"/>
+      <c r="L268" s="19"/>
       <c r="M268" s="27"/>
       <c r="N268" s="28"/>
       <c r="O268" s="22"/>
@@ -8338,7 +8337,7 @@
       <c r="I269" s="25"/>
       <c r="J269" s="26"/>
       <c r="K269" s="19"/>
-      <c r="L269" s="27"/>
+      <c r="L269" s="19"/>
       <c r="M269" s="27"/>
       <c r="N269" s="28"/>
       <c r="O269" s="22"/>
@@ -8361,7 +8360,7 @@
       <c r="I270" s="25"/>
       <c r="J270" s="26"/>
       <c r="K270" s="19"/>
-      <c r="L270" s="27"/>
+      <c r="L270" s="19"/>
       <c r="M270" s="27"/>
       <c r="N270" s="28"/>
       <c r="O270" s="22"/>
@@ -8384,7 +8383,7 @@
       <c r="I271" s="25"/>
       <c r="J271" s="26"/>
       <c r="K271" s="19"/>
-      <c r="L271" s="27"/>
+      <c r="L271" s="19"/>
       <c r="M271" s="27"/>
       <c r="N271" s="28"/>
       <c r="O271" s="22"/>
@@ -8407,7 +8406,7 @@
       <c r="I272" s="25"/>
       <c r="J272" s="26"/>
       <c r="K272" s="19"/>
-      <c r="L272" s="27"/>
+      <c r="L272" s="19"/>
       <c r="M272" s="27"/>
       <c r="N272" s="28"/>
       <c r="O272" s="22"/>
@@ -8430,7 +8429,7 @@
       <c r="I273" s="25"/>
       <c r="J273" s="26"/>
       <c r="K273" s="19"/>
-      <c r="L273" s="27"/>
+      <c r="L273" s="19"/>
       <c r="M273" s="27"/>
       <c r="N273" s="28"/>
       <c r="O273" s="22"/>
@@ -8453,7 +8452,7 @@
       <c r="I274" s="25"/>
       <c r="J274" s="26"/>
       <c r="K274" s="19"/>
-      <c r="L274" s="27"/>
+      <c r="L274" s="19"/>
       <c r="M274" s="27"/>
       <c r="N274" s="28"/>
       <c r="O274" s="22"/>
@@ -8476,7 +8475,7 @@
       <c r="I275" s="25"/>
       <c r="J275" s="26"/>
       <c r="K275" s="19"/>
-      <c r="L275" s="27"/>
+      <c r="L275" s="19"/>
       <c r="M275" s="27"/>
       <c r="N275" s="28"/>
       <c r="O275" s="22"/>
@@ -8499,7 +8498,7 @@
       <c r="I276" s="25"/>
       <c r="J276" s="26"/>
       <c r="K276" s="19"/>
-      <c r="L276" s="27"/>
+      <c r="L276" s="19"/>
       <c r="M276" s="27"/>
       <c r="N276" s="28"/>
       <c r="O276" s="22"/>
@@ -8522,7 +8521,7 @@
       <c r="I277" s="25"/>
       <c r="J277" s="26"/>
       <c r="K277" s="19"/>
-      <c r="L277" s="27"/>
+      <c r="L277" s="19"/>
       <c r="M277" s="27"/>
       <c r="N277" s="28"/>
       <c r="O277" s="22"/>
@@ -8545,7 +8544,7 @@
       <c r="I278" s="25"/>
       <c r="J278" s="26"/>
       <c r="K278" s="19"/>
-      <c r="L278" s="27"/>
+      <c r="L278" s="19"/>
       <c r="M278" s="27"/>
       <c r="N278" s="28"/>
       <c r="O278" s="22"/>
@@ -8568,7 +8567,7 @@
       <c r="I279" s="25"/>
       <c r="J279" s="26"/>
       <c r="K279" s="19"/>
-      <c r="L279" s="27"/>
+      <c r="L279" s="19"/>
       <c r="M279" s="27"/>
       <c r="N279" s="28"/>
       <c r="O279" s="22"/>
@@ -8591,7 +8590,7 @@
       <c r="I280" s="25"/>
       <c r="J280" s="26"/>
       <c r="K280" s="19"/>
-      <c r="L280" s="27"/>
+      <c r="L280" s="19"/>
       <c r="M280" s="27"/>
       <c r="N280" s="28"/>
       <c r="O280" s="22"/>
@@ -8614,7 +8613,7 @@
       <c r="I281" s="25"/>
       <c r="J281" s="26"/>
       <c r="K281" s="19"/>
-      <c r="L281" s="27"/>
+      <c r="L281" s="19"/>
       <c r="M281" s="27"/>
       <c r="N281" s="28"/>
       <c r="O281" s="22"/>
@@ -8637,7 +8636,7 @@
       <c r="I282" s="25"/>
       <c r="J282" s="26"/>
       <c r="K282" s="19"/>
-      <c r="L282" s="27"/>
+      <c r="L282" s="19"/>
       <c r="M282" s="27"/>
       <c r="N282" s="28"/>
       <c r="O282" s="22"/>
@@ -8660,7 +8659,7 @@
       <c r="I283" s="25"/>
       <c r="J283" s="26"/>
       <c r="K283" s="19"/>
-      <c r="L283" s="27"/>
+      <c r="L283" s="19"/>
       <c r="M283" s="27"/>
       <c r="N283" s="28"/>
       <c r="O283" s="22"/>
@@ -8683,7 +8682,7 @@
       <c r="I284" s="25"/>
       <c r="J284" s="26"/>
       <c r="K284" s="19"/>
-      <c r="L284" s="27"/>
+      <c r="L284" s="19"/>
       <c r="M284" s="27"/>
       <c r="N284" s="28"/>
       <c r="O284" s="22"/>
@@ -8706,7 +8705,7 @@
       <c r="I285" s="25"/>
       <c r="J285" s="26"/>
       <c r="K285" s="19"/>
-      <c r="L285" s="27"/>
+      <c r="L285" s="19"/>
       <c r="M285" s="27"/>
       <c r="N285" s="28"/>
       <c r="O285" s="22"/>
@@ -8729,7 +8728,7 @@
       <c r="I286" s="25"/>
       <c r="J286" s="26"/>
       <c r="K286" s="19"/>
-      <c r="L286" s="27"/>
+      <c r="L286" s="19"/>
       <c r="M286" s="27"/>
       <c r="N286" s="28"/>
       <c r="O286" s="22"/>
@@ -8752,7 +8751,7 @@
       <c r="I287" s="25"/>
       <c r="J287" s="26"/>
       <c r="K287" s="19"/>
-      <c r="L287" s="27"/>
+      <c r="L287" s="19"/>
       <c r="M287" s="27"/>
       <c r="N287" s="28"/>
       <c r="O287" s="22"/>
@@ -8775,7 +8774,7 @@
       <c r="I288" s="25"/>
       <c r="J288" s="26"/>
       <c r="K288" s="19"/>
-      <c r="L288" s="27"/>
+      <c r="L288" s="19"/>
       <c r="M288" s="27"/>
       <c r="N288" s="28"/>
       <c r="O288" s="22"/>
@@ -8798,7 +8797,7 @@
       <c r="I289" s="25"/>
       <c r="J289" s="26"/>
       <c r="K289" s="19"/>
-      <c r="L289" s="27"/>
+      <c r="L289" s="19"/>
       <c r="M289" s="27"/>
       <c r="N289" s="28"/>
       <c r="O289" s="22"/>
@@ -8821,7 +8820,7 @@
       <c r="I290" s="25"/>
       <c r="J290" s="26"/>
       <c r="K290" s="19"/>
-      <c r="L290" s="27"/>
+      <c r="L290" s="19"/>
       <c r="M290" s="27"/>
       <c r="N290" s="28"/>
       <c r="O290" s="22"/>
@@ -8844,7 +8843,7 @@
       <c r="I291" s="25"/>
       <c r="J291" s="26"/>
       <c r="K291" s="19"/>
-      <c r="L291" s="27"/>
+      <c r="L291" s="19"/>
       <c r="M291" s="27"/>
       <c r="N291" s="28"/>
       <c r="O291" s="22"/>
@@ -8867,7 +8866,7 @@
       <c r="I292" s="25"/>
       <c r="J292" s="26"/>
       <c r="K292" s="19"/>
-      <c r="L292" s="27"/>
+      <c r="L292" s="19"/>
       <c r="M292" s="27"/>
       <c r="N292" s="28"/>
       <c r="O292" s="22"/>
@@ -8890,7 +8889,7 @@
       <c r="I293" s="25"/>
       <c r="J293" s="26"/>
       <c r="K293" s="19"/>
-      <c r="L293" s="27"/>
+      <c r="L293" s="19"/>
       <c r="M293" s="27"/>
       <c r="N293" s="28"/>
       <c r="O293" s="22"/>
@@ -8913,7 +8912,7 @@
       <c r="I294" s="25"/>
       <c r="J294" s="26"/>
       <c r="K294" s="19"/>
-      <c r="L294" s="27"/>
+      <c r="L294" s="19"/>
       <c r="M294" s="27"/>
       <c r="N294" s="28"/>
       <c r="O294" s="22"/>
@@ -8936,7 +8935,7 @@
       <c r="I295" s="25"/>
       <c r="J295" s="26"/>
       <c r="K295" s="19"/>
-      <c r="L295" s="27"/>
+      <c r="L295" s="19"/>
       <c r="M295" s="27"/>
       <c r="N295" s="28"/>
       <c r="O295" s="22"/>
@@ -8959,7 +8958,7 @@
       <c r="I296" s="25"/>
       <c r="J296" s="26"/>
       <c r="K296" s="19"/>
-      <c r="L296" s="27"/>
+      <c r="L296" s="19"/>
       <c r="M296" s="27"/>
       <c r="N296" s="28"/>
       <c r="O296" s="22"/>
@@ -8982,7 +8981,7 @@
       <c r="I297" s="25"/>
       <c r="J297" s="26"/>
       <c r="K297" s="19"/>
-      <c r="L297" s="27"/>
+      <c r="L297" s="19"/>
       <c r="M297" s="27"/>
       <c r="N297" s="28"/>
       <c r="O297" s="22"/>
@@ -9005,7 +9004,7 @@
       <c r="I298" s="25"/>
       <c r="J298" s="26"/>
       <c r="K298" s="19"/>
-      <c r="L298" s="27"/>
+      <c r="L298" s="19"/>
       <c r="M298" s="27"/>
       <c r="N298" s="28"/>
       <c r="O298" s="22"/>
@@ -9028,7 +9027,7 @@
       <c r="I299" s="25"/>
       <c r="J299" s="26"/>
       <c r="K299" s="19"/>
-      <c r="L299" s="27"/>
+      <c r="L299" s="19"/>
       <c r="M299" s="27"/>
       <c r="N299" s="28"/>
       <c r="O299" s="22"/>
@@ -9051,7 +9050,7 @@
       <c r="I300" s="25"/>
       <c r="J300" s="26"/>
       <c r="K300" s="19"/>
-      <c r="L300" s="27"/>
+      <c r="L300" s="19"/>
       <c r="M300" s="27"/>
       <c r="N300" s="28"/>
       <c r="O300" s="22"/>
@@ -9074,7 +9073,7 @@
       <c r="I301" s="25"/>
       <c r="J301" s="26"/>
       <c r="K301" s="19"/>
-      <c r="L301" s="27"/>
+      <c r="L301" s="19"/>
       <c r="M301" s="27"/>
       <c r="N301" s="28"/>
       <c r="O301" s="22"/>
@@ -9097,7 +9096,7 @@
       <c r="I302" s="25"/>
       <c r="J302" s="26"/>
       <c r="K302" s="19"/>
-      <c r="L302" s="27"/>
+      <c r="L302" s="19"/>
       <c r="M302" s="27"/>
       <c r="N302" s="28"/>
       <c r="O302" s="22"/>
@@ -9120,7 +9119,7 @@
       <c r="I303" s="25"/>
       <c r="J303" s="26"/>
       <c r="K303" s="19"/>
-      <c r="L303" s="27"/>
+      <c r="L303" s="19"/>
       <c r="M303" s="27"/>
       <c r="N303" s="28"/>
       <c r="O303" s="22"/>
@@ -9143,7 +9142,7 @@
       <c r="I304" s="25"/>
       <c r="J304" s="26"/>
       <c r="K304" s="19"/>
-      <c r="L304" s="27"/>
+      <c r="L304" s="19"/>
       <c r="M304" s="27"/>
       <c r="N304" s="28"/>
       <c r="O304" s="22"/>
@@ -9166,7 +9165,7 @@
       <c r="I305" s="25"/>
       <c r="J305" s="26"/>
       <c r="K305" s="19"/>
-      <c r="L305" s="27"/>
+      <c r="L305" s="19"/>
       <c r="M305" s="27"/>
       <c r="N305" s="28"/>
       <c r="O305" s="22"/>
@@ -9189,7 +9188,7 @@
       <c r="I306" s="25"/>
       <c r="J306" s="26"/>
       <c r="K306" s="19"/>
-      <c r="L306" s="27"/>
+      <c r="L306" s="19"/>
       <c r="M306" s="27"/>
       <c r="N306" s="28"/>
       <c r="O306" s="22"/>
@@ -9212,7 +9211,7 @@
       <c r="I307" s="25"/>
       <c r="J307" s="26"/>
       <c r="K307" s="19"/>
-      <c r="L307" s="27"/>
+      <c r="L307" s="19"/>
       <c r="M307" s="27"/>
       <c r="N307" s="28"/>
       <c r="O307" s="22"/>
@@ -9235,7 +9234,7 @@
       <c r="I308" s="25"/>
       <c r="J308" s="26"/>
       <c r="K308" s="19"/>
-      <c r="L308" s="27"/>
+      <c r="L308" s="19"/>
       <c r="M308" s="27"/>
       <c r="N308" s="28"/>
       <c r="O308" s="22"/>
@@ -9258,7 +9257,7 @@
       <c r="I309" s="25"/>
       <c r="J309" s="26"/>
       <c r="K309" s="19"/>
-      <c r="L309" s="27"/>
+      <c r="L309" s="19"/>
       <c r="M309" s="27"/>
       <c r="N309" s="28"/>
       <c r="O309" s="22"/>
@@ -9281,7 +9280,7 @@
       <c r="I310" s="25"/>
       <c r="J310" s="26"/>
       <c r="K310" s="19"/>
-      <c r="L310" s="27"/>
+      <c r="L310" s="19"/>
       <c r="M310" s="27"/>
       <c r="N310" s="28"/>
       <c r="O310" s="22"/>
@@ -9304,7 +9303,7 @@
       <c r="I311" s="25"/>
       <c r="J311" s="26"/>
       <c r="K311" s="19"/>
-      <c r="L311" s="27"/>
+      <c r="L311" s="19"/>
       <c r="M311" s="27"/>
       <c r="N311" s="28"/>
       <c r="O311" s="22"/>
@@ -9327,7 +9326,7 @@
       <c r="I312" s="25"/>
       <c r="J312" s="26"/>
       <c r="K312" s="19"/>
-      <c r="L312" s="27"/>
+      <c r="L312" s="19"/>
       <c r="M312" s="27"/>
       <c r="N312" s="28"/>
       <c r="O312" s="22"/>
@@ -9350,7 +9349,7 @@
       <c r="I313" s="25"/>
       <c r="J313" s="26"/>
       <c r="K313" s="19"/>
-      <c r="L313" s="27"/>
+      <c r="L313" s="19"/>
       <c r="M313" s="27"/>
       <c r="N313" s="28"/>
       <c r="O313" s="22"/>
@@ -9373,7 +9372,7 @@
       <c r="I314" s="25"/>
       <c r="J314" s="26"/>
       <c r="K314" s="19"/>
-      <c r="L314" s="27"/>
+      <c r="L314" s="19"/>
       <c r="M314" s="27"/>
       <c r="N314" s="28"/>
       <c r="O314" s="22"/>
@@ -9396,7 +9395,7 @@
       <c r="I315" s="25"/>
       <c r="J315" s="26"/>
       <c r="K315" s="19"/>
-      <c r="L315" s="27"/>
+      <c r="L315" s="19"/>
       <c r="M315" s="27"/>
       <c r="N315" s="28"/>
       <c r="O315" s="22"/>
@@ -9419,7 +9418,7 @@
       <c r="I316" s="25"/>
       <c r="J316" s="26"/>
       <c r="K316" s="19"/>
-      <c r="L316" s="27"/>
+      <c r="L316" s="19"/>
       <c r="M316" s="27"/>
       <c r="N316" s="28"/>
       <c r="O316" s="22"/>
@@ -9442,7 +9441,7 @@
       <c r="I317" s="25"/>
       <c r="J317" s="26"/>
       <c r="K317" s="19"/>
-      <c r="L317" s="27"/>
+      <c r="L317" s="19"/>
       <c r="M317" s="27"/>
       <c r="N317" s="28"/>
       <c r="O317" s="22"/>
@@ -9465,7 +9464,7 @@
       <c r="I318" s="25"/>
       <c r="J318" s="26"/>
       <c r="K318" s="19"/>
-      <c r="L318" s="27"/>
+      <c r="L318" s="19"/>
       <c r="M318" s="27"/>
       <c r="N318" s="28"/>
       <c r="O318" s="22"/>
@@ -9488,7 +9487,7 @@
       <c r="I319" s="25"/>
       <c r="J319" s="26"/>
       <c r="K319" s="19"/>
-      <c r="L319" s="27"/>
+      <c r="L319" s="19"/>
       <c r="M319" s="27"/>
       <c r="N319" s="28"/>
       <c r="O319" s="22"/>
@@ -9511,7 +9510,7 @@
       <c r="I320" s="25"/>
       <c r="J320" s="26"/>
       <c r="K320" s="19"/>
-      <c r="L320" s="27"/>
+      <c r="L320" s="19"/>
       <c r="M320" s="27"/>
       <c r="N320" s="28"/>
       <c r="O320" s="22"/>
@@ -9534,7 +9533,7 @@
       <c r="I321" s="25"/>
       <c r="J321" s="26"/>
       <c r="K321" s="19"/>
-      <c r="L321" s="27"/>
+      <c r="L321" s="19"/>
       <c r="M321" s="27"/>
       <c r="N321" s="28"/>
       <c r="O321" s="22"/>
@@ -9557,7 +9556,7 @@
       <c r="I322" s="25"/>
       <c r="J322" s="26"/>
       <c r="K322" s="19"/>
-      <c r="L322" s="27"/>
+      <c r="L322" s="19"/>
       <c r="M322" s="27"/>
       <c r="N322" s="28"/>
       <c r="O322" s="22"/>
@@ -9580,7 +9579,7 @@
       <c r="I323" s="25"/>
       <c r="J323" s="26"/>
       <c r="K323" s="19"/>
-      <c r="L323" s="27"/>
+      <c r="L323" s="19"/>
       <c r="M323" s="27"/>
       <c r="N323" s="28"/>
       <c r="O323" s="22"/>
@@ -9603,7 +9602,7 @@
       <c r="I324" s="25"/>
       <c r="J324" s="26"/>
       <c r="K324" s="19"/>
-      <c r="L324" s="27"/>
+      <c r="L324" s="19"/>
       <c r="M324" s="27"/>
       <c r="N324" s="28"/>
       <c r="O324" s="22"/>
@@ -9626,7 +9625,7 @@
       <c r="I325" s="25"/>
       <c r="J325" s="26"/>
       <c r="K325" s="19"/>
-      <c r="L325" s="27"/>
+      <c r="L325" s="19"/>
       <c r="M325" s="27"/>
       <c r="N325" s="28"/>
       <c r="O325" s="22"/>
@@ -9649,7 +9648,7 @@
       <c r="I326" s="25"/>
       <c r="J326" s="26"/>
       <c r="K326" s="19"/>
-      <c r="L326" s="27"/>
+      <c r="L326" s="19"/>
       <c r="M326" s="27"/>
       <c r="N326" s="28"/>
       <c r="O326" s="22"/>
@@ -9672,7 +9671,7 @@
       <c r="I327" s="25"/>
       <c r="J327" s="26"/>
       <c r="K327" s="19"/>
-      <c r="L327" s="27"/>
+      <c r="L327" s="19"/>
       <c r="M327" s="27"/>
       <c r="N327" s="28"/>
       <c r="O327" s="22"/>
@@ -9695,7 +9694,7 @@
       <c r="I328" s="25"/>
       <c r="J328" s="26"/>
       <c r="K328" s="19"/>
-      <c r="L328" s="27"/>
+      <c r="L328" s="19"/>
       <c r="M328" s="27"/>
       <c r="N328" s="28"/>
       <c r="O328" s="22"/>
@@ -9718,7 +9717,7 @@
       <c r="I329" s="25"/>
       <c r="J329" s="26"/>
       <c r="K329" s="19"/>
-      <c r="L329" s="27"/>
+      <c r="L329" s="19"/>
       <c r="M329" s="27"/>
       <c r="N329" s="28"/>
       <c r="O329" s="22"/>
@@ -9741,7 +9740,7 @@
       <c r="I330" s="25"/>
       <c r="J330" s="26"/>
       <c r="K330" s="19"/>
-      <c r="L330" s="27"/>
+      <c r="L330" s="19"/>
       <c r="M330" s="27"/>
       <c r="N330" s="28"/>
       <c r="O330" s="22"/>
@@ -9764,7 +9763,7 @@
       <c r="I331" s="25"/>
       <c r="J331" s="26"/>
       <c r="K331" s="19"/>
-      <c r="L331" s="27"/>
+      <c r="L331" s="19"/>
       <c r="M331" s="27"/>
       <c r="N331" s="28"/>
       <c r="O331" s="22"/>
@@ -9787,7 +9786,7 @@
       <c r="I332" s="25"/>
       <c r="J332" s="26"/>
       <c r="K332" s="19"/>
-      <c r="L332" s="27"/>
+      <c r="L332" s="19"/>
       <c r="M332" s="27"/>
       <c r="N332" s="28"/>
       <c r="O332" s="22"/>
@@ -9810,7 +9809,7 @@
       <c r="I333" s="25"/>
       <c r="J333" s="26"/>
       <c r="K333" s="19"/>
-      <c r="L333" s="27"/>
+      <c r="L333" s="19"/>
       <c r="M333" s="27"/>
       <c r="N333" s="28"/>
       <c r="O333" s="22"/>
@@ -9833,7 +9832,7 @@
       <c r="I334" s="25"/>
       <c r="J334" s="26"/>
       <c r="K334" s="19"/>
-      <c r="L334" s="27"/>
+      <c r="L334" s="19"/>
       <c r="M334" s="27"/>
       <c r="N334" s="28"/>
       <c r="O334" s="22"/>
@@ -9856,7 +9855,7 @@
       <c r="I335" s="25"/>
       <c r="J335" s="26"/>
       <c r="K335" s="19"/>
-      <c r="L335" s="27"/>
+      <c r="L335" s="19"/>
       <c r="M335" s="27"/>
       <c r="N335" s="28"/>
       <c r="O335" s="22"/>
@@ -9879,7 +9878,7 @@
       <c r="I336" s="25"/>
       <c r="J336" s="26"/>
       <c r="K336" s="19"/>
-      <c r="L336" s="27"/>
+      <c r="L336" s="19"/>
       <c r="M336" s="27"/>
       <c r="N336" s="28"/>
       <c r="O336" s="22"/>
@@ -9902,7 +9901,7 @@
       <c r="I337" s="25"/>
       <c r="J337" s="26"/>
       <c r="K337" s="19"/>
-      <c r="L337" s="27"/>
+      <c r="L337" s="19"/>
       <c r="M337" s="27"/>
       <c r="N337" s="28"/>
       <c r="O337" s="22"/>
@@ -9925,7 +9924,7 @@
       <c r="I338" s="25"/>
       <c r="J338" s="26"/>
       <c r="K338" s="19"/>
-      <c r="L338" s="27"/>
+      <c r="L338" s="19"/>
       <c r="M338" s="27"/>
       <c r="N338" s="28"/>
       <c r="O338" s="22"/>
@@ -9948,7 +9947,7 @@
       <c r="I339" s="25"/>
       <c r="J339" s="26"/>
       <c r="K339" s="19"/>
-      <c r="L339" s="27"/>
+      <c r="L339" s="19"/>
       <c r="M339" s="27"/>
       <c r="N339" s="28"/>
       <c r="O339" s="22"/>
@@ -9971,7 +9970,7 @@
       <c r="I340" s="25"/>
       <c r="J340" s="26"/>
       <c r="K340" s="19"/>
-      <c r="L340" s="27"/>
+      <c r="L340" s="19"/>
       <c r="M340" s="27"/>
       <c r="N340" s="28"/>
       <c r="O340" s="22"/>
@@ -9994,7 +9993,7 @@
       <c r="I341" s="25"/>
       <c r="J341" s="26"/>
       <c r="K341" s="19"/>
-      <c r="L341" s="27"/>
+      <c r="L341" s="19"/>
       <c r="M341" s="27"/>
       <c r="N341" s="28"/>
       <c r="O341" s="22"/>
@@ -10017,7 +10016,7 @@
       <c r="I342" s="25"/>
       <c r="J342" s="26"/>
       <c r="K342" s="19"/>
-      <c r="L342" s="27"/>
+      <c r="L342" s="19"/>
       <c r="M342" s="27"/>
       <c r="N342" s="28"/>
       <c r="O342" s="22"/>
@@ -10040,7 +10039,7 @@
       <c r="I343" s="25"/>
       <c r="J343" s="26"/>
       <c r="K343" s="19"/>
-      <c r="L343" s="27"/>
+      <c r="L343" s="19"/>
       <c r="M343" s="27"/>
       <c r="N343" s="28"/>
       <c r="O343" s="22"/>
@@ -10063,7 +10062,7 @@
       <c r="I344" s="25"/>
       <c r="J344" s="26"/>
       <c r="K344" s="19"/>
-      <c r="L344" s="27"/>
+      <c r="L344" s="19"/>
       <c r="M344" s="27"/>
       <c r="N344" s="28"/>
       <c r="O344" s="22"/>
@@ -10086,7 +10085,7 @@
       <c r="I345" s="25"/>
       <c r="J345" s="26"/>
       <c r="K345" s="19"/>
-      <c r="L345" s="27"/>
+      <c r="L345" s="19"/>
       <c r="M345" s="27"/>
       <c r="N345" s="28"/>
       <c r="O345" s="22"/>
@@ -10109,7 +10108,7 @@
       <c r="I346" s="25"/>
       <c r="J346" s="26"/>
       <c r="K346" s="19"/>
-      <c r="L346" s="27"/>
+      <c r="L346" s="19"/>
       <c r="M346" s="27"/>
       <c r="N346" s="28"/>
       <c r="O346" s="22"/>
@@ -10132,7 +10131,7 @@
       <c r="I347" s="25"/>
       <c r="J347" s="26"/>
       <c r="K347" s="19"/>
-      <c r="L347" s="27"/>
+      <c r="L347" s="19"/>
       <c r="M347" s="27"/>
       <c r="N347" s="28"/>
       <c r="O347" s="22"/>
@@ -10155,7 +10154,7 @@
       <c r="I348" s="25"/>
       <c r="J348" s="26"/>
       <c r="K348" s="19"/>
-      <c r="L348" s="27"/>
+      <c r="L348" s="19"/>
       <c r="M348" s="27"/>
       <c r="N348" s="28"/>
       <c r="O348" s="22"/>
@@ -10178,7 +10177,7 @@
       <c r="I349" s="25"/>
       <c r="J349" s="26"/>
       <c r="K349" s="19"/>
-      <c r="L349" s="27"/>
+      <c r="L349" s="19"/>
       <c r="M349" s="27"/>
       <c r="N349" s="28"/>
       <c r="O349" s="22"/>
@@ -10201,7 +10200,7 @@
       <c r="I350" s="25"/>
       <c r="J350" s="26"/>
       <c r="K350" s="19"/>
-      <c r="L350" s="27"/>
+      <c r="L350" s="19"/>
       <c r="M350" s="27"/>
       <c r="N350" s="28"/>
       <c r="O350" s="22"/>
@@ -10224,7 +10223,7 @@
       <c r="I351" s="25"/>
       <c r="J351" s="26"/>
       <c r="K351" s="19"/>
-      <c r="L351" s="27"/>
+      <c r="L351" s="19"/>
       <c r="M351" s="27"/>
       <c r="N351" s="28"/>
       <c r="O351" s="22"/>
@@ -10247,7 +10246,7 @@
       <c r="I352" s="25"/>
       <c r="J352" s="26"/>
       <c r="K352" s="19"/>
-      <c r="L352" s="27"/>
+      <c r="L352" s="19"/>
       <c r="M352" s="27"/>
       <c r="N352" s="28"/>
       <c r="O352" s="22"/>
@@ -10270,7 +10269,7 @@
       <c r="I353" s="25"/>
       <c r="J353" s="26"/>
       <c r="K353" s="19"/>
-      <c r="L353" s="27"/>
+      <c r="L353" s="19"/>
       <c r="M353" s="27"/>
       <c r="N353" s="28"/>
       <c r="O353" s="22"/>
@@ -10293,7 +10292,7 @@
       <c r="I354" s="25"/>
       <c r="J354" s="26"/>
       <c r="K354" s="19"/>
-      <c r="L354" s="27"/>
+      <c r="L354" s="19"/>
       <c r="M354" s="27"/>
       <c r="N354" s="28"/>
       <c r="O354" s="22"/>
@@ -10316,7 +10315,7 @@
       <c r="I355" s="25"/>
       <c r="J355" s="26"/>
       <c r="K355" s="19"/>
-      <c r="L355" s="27"/>
+      <c r="L355" s="19"/>
       <c r="M355" s="27"/>
       <c r="N355" s="28"/>
       <c r="O355" s="22"/>
@@ -10339,7 +10338,7 @@
       <c r="I356" s="25"/>
       <c r="J356" s="26"/>
       <c r="K356" s="19"/>
-      <c r="L356" s="27"/>
+      <c r="L356" s="19"/>
       <c r="M356" s="27"/>
       <c r="N356" s="28"/>
       <c r="O356" s="22"/>
@@ -10362,7 +10361,7 @@
       <c r="I357" s="25"/>
       <c r="J357" s="26"/>
       <c r="K357" s="19"/>
-      <c r="L357" s="27"/>
+      <c r="L357" s="19"/>
       <c r="M357" s="27"/>
       <c r="N357" s="28"/>
       <c r="O357" s="22"/>
@@ -10385,7 +10384,7 @@
       <c r="I358" s="25"/>
       <c r="J358" s="26"/>
       <c r="K358" s="19"/>
-      <c r="L358" s="27"/>
+      <c r="L358" s="19"/>
       <c r="M358" s="27"/>
       <c r="N358" s="28"/>
       <c r="O358" s="22"/>
@@ -10408,7 +10407,7 @@
       <c r="I359" s="25"/>
       <c r="J359" s="26"/>
       <c r="K359" s="19"/>
-      <c r="L359" s="27"/>
+      <c r="L359" s="19"/>
       <c r="M359" s="27"/>
       <c r="N359" s="28"/>
       <c r="O359" s="22"/>
@@ -10431,7 +10430,7 @@
       <c r="I360" s="25"/>
       <c r="J360" s="26"/>
       <c r="K360" s="19"/>
-      <c r="L360" s="27"/>
+      <c r="L360" s="19"/>
       <c r="M360" s="27"/>
       <c r="N360" s="28"/>
       <c r="O360" s="22"/>
@@ -10454,7 +10453,7 @@
       <c r="I361" s="25"/>
       <c r="J361" s="26"/>
       <c r="K361" s="19"/>
-      <c r="L361" s="27"/>
+      <c r="L361" s="19"/>
       <c r="M361" s="27"/>
       <c r="N361" s="28"/>
       <c r="O361" s="22"/>
@@ -10477,7 +10476,7 @@
       <c r="I362" s="25"/>
       <c r="J362" s="26"/>
       <c r="K362" s="19"/>
-      <c r="L362" s="27"/>
+      <c r="L362" s="19"/>
       <c r="M362" s="27"/>
       <c r="N362" s="28"/>
       <c r="O362" s="22"/>
@@ -10500,7 +10499,7 @@
       <c r="I363" s="25"/>
       <c r="J363" s="26"/>
       <c r="K363" s="19"/>
-      <c r="L363" s="27"/>
+      <c r="L363" s="19"/>
       <c r="M363" s="27"/>
       <c r="N363" s="28"/>
       <c r="O363" s="22"/>
@@ -10523,7 +10522,7 @@
       <c r="I364" s="25"/>
       <c r="J364" s="26"/>
       <c r="K364" s="19"/>
-      <c r="L364" s="27"/>
+      <c r="L364" s="19"/>
       <c r="M364" s="27"/>
       <c r="N364" s="28"/>
       <c r="O364" s="22"/>
@@ -10546,7 +10545,7 @@
       <c r="I365" s="25"/>
       <c r="J365" s="26"/>
       <c r="K365" s="19"/>
-      <c r="L365" s="27"/>
+      <c r="L365" s="19"/>
       <c r="M365" s="27"/>
       <c r="N365" s="28"/>
       <c r="O365" s="22"/>
@@ -10569,7 +10568,7 @@
       <c r="I366" s="25"/>
       <c r="J366" s="26"/>
       <c r="K366" s="19"/>
-      <c r="L366" s="27"/>
+      <c r="L366" s="19"/>
       <c r="M366" s="27"/>
       <c r="N366" s="28"/>
       <c r="O366" s="22"/>
@@ -10592,7 +10591,7 @@
       <c r="I367" s="25"/>
       <c r="J367" s="26"/>
       <c r="K367" s="19"/>
-      <c r="L367" s="27"/>
+      <c r="L367" s="19"/>
       <c r="M367" s="27"/>
       <c r="N367" s="28"/>
       <c r="O367" s="22"/>
@@ -10615,7 +10614,7 @@
       <c r="I368" s="25"/>
       <c r="J368" s="26"/>
       <c r="K368" s="19"/>
-      <c r="L368" s="27"/>
+      <c r="L368" s="19"/>
       <c r="M368" s="27"/>
       <c r="N368" s="28"/>
       <c r="O368" s="22"/>
@@ -10638,7 +10637,7 @@
       <c r="I369" s="25"/>
       <c r="J369" s="26"/>
       <c r="K369" s="19"/>
-      <c r="L369" s="27"/>
+      <c r="L369" s="19"/>
       <c r="M369" s="27"/>
       <c r="N369" s="28"/>
       <c r="O369" s="22"/>
@@ -10661,7 +10660,7 @@
       <c r="I370" s="25"/>
       <c r="J370" s="26"/>
       <c r="K370" s="19"/>
-      <c r="L370" s="27"/>
+      <c r="L370" s="19"/>
       <c r="M370" s="27"/>
       <c r="N370" s="28"/>
       <c r="O370" s="22"/>
@@ -10684,7 +10683,7 @@
       <c r="I371" s="25"/>
       <c r="J371" s="26"/>
       <c r="K371" s="19"/>
-      <c r="L371" s="27"/>
+      <c r="L371" s="19"/>
       <c r="M371" s="27"/>
       <c r="N371" s="28"/>
       <c r="O371" s="22"/>
@@ -10707,7 +10706,7 @@
       <c r="I372" s="25"/>
       <c r="J372" s="26"/>
       <c r="K372" s="19"/>
-      <c r="L372" s="27"/>
+      <c r="L372" s="19"/>
       <c r="M372" s="27"/>
       <c r="N372" s="28"/>
       <c r="O372" s="22"/>
@@ -10730,7 +10729,7 @@
       <c r="I373" s="25"/>
       <c r="J373" s="26"/>
       <c r="K373" s="19"/>
-      <c r="L373" s="27"/>
+      <c r="L373" s="19"/>
       <c r="M373" s="27"/>
       <c r="N373" s="28"/>
       <c r="O373" s="22"/>
@@ -10753,7 +10752,7 @@
       <c r="I374" s="25"/>
       <c r="J374" s="26"/>
       <c r="K374" s="19"/>
-      <c r="L374" s="27"/>
+      <c r="L374" s="19"/>
       <c r="M374" s="27"/>
       <c r="N374" s="28"/>
       <c r="O374" s="22"/>
@@ -10776,7 +10775,7 @@
       <c r="I375" s="25"/>
       <c r="J375" s="26"/>
       <c r="K375" s="19"/>
-      <c r="L375" s="27"/>
+      <c r="L375" s="19"/>
       <c r="M375" s="27"/>
       <c r="N375" s="28"/>
       <c r="O375" s="22"/>
@@ -10799,7 +10798,7 @@
       <c r="I376" s="25"/>
       <c r="J376" s="26"/>
       <c r="K376" s="19"/>
-      <c r="L376" s="27"/>
+      <c r="L376" s="19"/>
       <c r="M376" s="27"/>
       <c r="N376" s="28"/>
       <c r="O376" s="22"/>
@@ -10822,7 +10821,7 @@
       <c r="I377" s="25"/>
       <c r="J377" s="26"/>
       <c r="K377" s="19"/>
-      <c r="L377" s="27"/>
+      <c r="L377" s="19"/>
       <c r="M377" s="27"/>
       <c r="N377" s="28"/>
       <c r="O377" s="22"/>
@@ -10845,7 +10844,7 @@
       <c r="I378" s="25"/>
       <c r="J378" s="26"/>
       <c r="K378" s="19"/>
-      <c r="L378" s="27"/>
+      <c r="L378" s="19"/>
       <c r="M378" s="27"/>
       <c r="N378" s="28"/>
       <c r="O378" s="22"/>
@@ -10868,7 +10867,7 @@
       <c r="I379" s="25"/>
       <c r="J379" s="26"/>
       <c r="K379" s="19"/>
-      <c r="L379" s="27"/>
+      <c r="L379" s="19"/>
       <c r="M379" s="27"/>
       <c r="N379" s="28"/>
       <c r="O379" s="22"/>
@@ -10891,7 +10890,7 @@
       <c r="I380" s="25"/>
       <c r="J380" s="26"/>
       <c r="K380" s="19"/>
-      <c r="L380" s="27"/>
+      <c r="L380" s="19"/>
       <c r="M380" s="27"/>
       <c r="N380" s="28"/>
       <c r="O380" s="22"/>
@@ -10914,7 +10913,7 @@
       <c r="I381" s="25"/>
       <c r="J381" s="26"/>
       <c r="K381" s="19"/>
-      <c r="L381" s="27"/>
+      <c r="L381" s="19"/>
       <c r="M381" s="27"/>
       <c r="N381" s="28"/>
       <c r="O381" s="22"/>
@@ -10937,7 +10936,7 @@
       <c r="I382" s="25"/>
       <c r="J382" s="26"/>
       <c r="K382" s="19"/>
-      <c r="L382" s="27"/>
+      <c r="L382" s="19"/>
       <c r="M382" s="27"/>
       <c r="N382" s="28"/>
       <c r="O382" s="22"/>
@@ -10960,7 +10959,7 @@
       <c r="I383" s="25"/>
       <c r="J383" s="26"/>
       <c r="K383" s="19"/>
-      <c r="L383" s="27"/>
+      <c r="L383" s="19"/>
       <c r="M383" s="27"/>
       <c r="N383" s="28"/>
       <c r="O383" s="22"/>
@@ -10983,7 +10982,7 @@
       <c r="I384" s="25"/>
       <c r="J384" s="26"/>
       <c r="K384" s="19"/>
-      <c r="L384" s="27"/>
+      <c r="L384" s="19"/>
       <c r="M384" s="27"/>
       <c r="N384" s="28"/>
       <c r="O384" s="22"/>
@@ -11006,7 +11005,7 @@
       <c r="I385" s="25"/>
       <c r="J385" s="26"/>
       <c r="K385" s="19"/>
-      <c r="L385" s="27"/>
+      <c r="L385" s="19"/>
       <c r="M385" s="27"/>
       <c r="N385" s="28"/>
       <c r="O385" s="22"/>
@@ -11029,7 +11028,7 @@
       <c r="I386" s="25"/>
       <c r="J386" s="26"/>
       <c r="K386" s="19"/>
-      <c r="L386" s="27"/>
+      <c r="L386" s="19"/>
       <c r="M386" s="27"/>
       <c r="N386" s="28"/>
       <c r="O386" s="22"/>
@@ -11052,7 +11051,7 @@
       <c r="I387" s="25"/>
       <c r="J387" s="26"/>
       <c r="K387" s="19"/>
-      <c r="L387" s="27"/>
+      <c r="L387" s="19"/>
       <c r="M387" s="27"/>
       <c r="N387" s="28"/>
       <c r="O387" s="22"/>
@@ -11075,7 +11074,7 @@
       <c r="I388" s="25"/>
       <c r="J388" s="26"/>
       <c r="K388" s="19"/>
-      <c r="L388" s="27"/>
+      <c r="L388" s="19"/>
       <c r="M388" s="27"/>
       <c r="N388" s="28"/>
       <c r="O388" s="22"/>
@@ -11098,7 +11097,7 @@
       <c r="I389" s="36"/>
       <c r="J389" s="37"/>
       <c r="K389" s="30"/>
-      <c r="L389" s="38"/>
+      <c r="L389" s="30"/>
       <c r="M389" s="38"/>
       <c r="N389" s="39"/>
       <c r="O389" s="33"/>
@@ -11654,7 +11653,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12144,7 +12143,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>46</v>
@@ -12919,7 +12918,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/fms_core/tests/invalid_templates/Sample_transfer_v4_10_0_Missing_Study.xlsx
+++ b/backend/fms_core/tests/invalid_templates/Sample_transfer_v4_10_0_Missing_Study.xlsx
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Current Volume (uL)</t>
   </si>
   <si>
-    <t xml:space="preserve">New Current Volume (uL)</t>
+    <t xml:space="preserve">Corrected Current Volume (uL)</t>
   </si>
   <si>
     <t xml:space="preserve">Volume Used (uL)</t>
@@ -2140,7 +2140,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="38.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="34.83"/>
